--- a/examples/99_tower_gbf/15mw/60m/outputs_mono/monotow_output.xlsx
+++ b/examples/99_tower_gbf/15mw/60m/outputs_mono/monotow_output.xlsx
@@ -914,7 +914,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.077      0.09463231 0.13       0.09173222 0.10071154 0.077
+  0.09043702]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -937,8 +938,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.77214171 11.88077769 11.44458563
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[11.03279711]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[11.05777113]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[2.63367232]</t>
+          <t>[2.80618747]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[[0.10002487 0.05882939 0.01576194 0.00960431 0.01320408]]</t>
+          <t>[[0.04       0.04       0.01549125 0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 10.42327969  5.999     ]</t>
+          <t>[12.         12.         12.          9.56023698  5.999     ]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4573,10 +4573,10 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          17734.54919991
-  19037.5338827   23149.01700337  30727.62810066  42699.80635211
-  61065.38653636  88807.23626633  99214.95112891 111034.61275205
- 124542.43715559      0.              0.              0.
+          <t>[     0.              0.              0.          15323.38852087
+  16450.58580019  20006.18431181  26563.4182924   37201.47746339
+  53640.36964699  78643.669866    92005.852428   107912.48247064
+ 126971.18758834      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -4827,10 +4827,8 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.91161888 12.91161888 12.91161888
- 12.91161888 12.86512649 12.8186341  12.77214171 12.47502037 12.17789903
- 11.88077769 11.73538034 11.58998298 11.44458563 11.31564746 11.1867093
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.
+ 12.]</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -4971,10 +4969,10 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          17734.54919991
-  19037.5338827   23149.01700337  30727.62810066  42699.80635211
-  61065.38653636  88807.23626633  99214.95112891 111034.61275205
- 124542.43715559      0.              0.              0.
+          <t>[     0.              0.              0.          15323.38852087
+  16450.58580019  20006.18431181  26563.4182924   37201.47746339
+  53640.36964699  78643.669866    92005.852428   107912.48247064
+ 126971.18758834      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5117,10 +5115,10 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -17734.54919991
-  -19037.5338827   -23149.01700337  -30727.62810066  -42699.80635211
-  -61065.38653636  -88807.23626633  -99214.95112891 -111034.61275205
- -124542.43715559       0.               0.               0.
+          <t>[      0.               0.               0.          -15323.38852087
+  -16450.58580019  -20006.18431181  -26563.4182924   -37201.47746339
+  -53640.36964699  -78643.669866    -92005.852428   -107912.48247064
+ -126971.18758834       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -5171,8 +5169,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.77214171 11.88077769 11.44458563
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -5195,7 +5192,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.08581616 0.11231616 0.11086611 0.09622188 0.08885577 0.08371851]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -5261,8 +5258,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.77214171 11.88077769 11.44458563
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -5285,7 +5281,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.08581616 0.11231616 0.11086611 0.09622188 0.08885577 0.08371851]</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -5548,8 +5544,9 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077
- 0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.08581616 0.08581616 0.08581616 0.11231616 0.11231616 0.11231616
+ 0.11086611 0.11086611 0.11086611 0.09622188 0.09622188 0.09622188
+ 0.08885577 0.08885577 0.08885577 0.08371851 0.08371851 0.08371851]</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5713,7 +5710,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[2663456.07126732]</t>
+          <t>[3252053.14379521]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5736,7 +5733,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[6463886.28323875]</t>
+          <t>[7724393.8875664]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5759,7 +5756,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[51.6045125]</t>
+          <t>[53.15894069]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5782,7 +5779,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[9.53977558e+09 9.53977558e+09 1.05604184e+08 0.00000000e+00
+          <t>[1.19603242e+10 1.19603242e+10 1.15124994e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -5806,7 +5803,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[1563982.87290503]</t>
+          <t>[1126879.03045982]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5829,7 +5826,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[4113520.05626548]</t>
+          <t>[3188249.17895589]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5876,26 +5873,26 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[[2.32411620e+10 6.10356153e+12 2.32411620e+10 6.10356153e+12
-  1.61054221e+10 2.00899507e+11]
- [2.11662147e+10 4.44105979e+12 2.11662147e+10 4.44105979e+12
-  1.49854221e+10 2.00899507e+11]
- [1.90912673e+10 3.13253336e+12 1.90912673e+10 3.13253336e+12
-  1.38654221e+10 2.00899507e+11]
- [1.70163199e+10 2.13373533e+12 1.70163199e+10 2.13373533e+12
-  1.27454221e+10 2.00899507e+11]
- [1.49413726e+10 1.40041877e+12 1.49413726e+10 1.40041877e+12
-  1.16254221e+10 2.00899507e+11]
- [1.28664252e+10 8.88336788e+11 1.28664252e+10 8.88336788e+11
-  1.05054221e+10 2.00899507e+11]
- [1.07914778e+10 5.53242457e+11 1.07914778e+10 5.53242457e+11
-  9.38542214e+09 2.00899507e+11]
- [8.71653047e+09 3.50888867e+11 8.71653047e+09 3.50888867e+11
-  8.26542214e+09 2.00899507e+11]
- [6.64158310e+09 2.37029105e+11 6.64158310e+09 2.37029105e+11
-  7.14542214e+09 2.00899507e+11]
- [4.56663573e+09 1.67416256e+11 4.56663573e+09 1.67416256e+11
-  6.02542214e+09 2.00899507e+11]]</t>
+          <t>[[2.29187368e+10 5.99424000e+12 2.29187368e+10 5.99424000e+12
+  1.56800000e+10 1.61280000e+11]
+ [2.08437895e+10 4.34021663e+12 2.08437895e+10 4.34021663e+12
+  1.45600000e+10 1.61280000e+11]
+ [1.87688421e+10 3.04016856e+12 1.87688421e+10 3.04016856e+12
+  1.34400000e+10 1.61280000e+11]
+ [1.66938947e+10 2.04984889e+12 1.66938947e+10 2.04984889e+12
+  1.23200000e+10 1.61280000e+11]
+ [1.46189474e+10 1.32501070e+12 1.46189474e+10 1.32501070e+12
+  1.12000000e+10 1.61280000e+11]
+ [1.25440000e+10 8.21407078e+11 1.25440000e+10 8.21407078e+11
+  1.00800000e+10 1.61280000e+11]
+ [1.04690526e+10 4.94791111e+11 1.04690526e+10 4.94791111e+11
+  8.96000000e+09 1.61280000e+11]
+ [8.39410526e+09 3.00915885e+11 8.39410526e+09 3.00915885e+11
+  7.84000000e+09 1.61280000e+11]
+ [6.31915789e+09 1.95534486e+11 6.31915789e+09 1.95534486e+11
+  6.72000000e+09 1.61280000e+11]
+ [4.24421053e+09 1.34400000e+11 4.24421053e+09 1.34400000e+11
+  5.60000000e+09 1.61280000e+11]]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -5918,9 +5915,9 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[3.32205909 3.32205909 3.32205909 3.32205909 3.32205909 3.32205909
- 3.31604214 3.30400824 3.29197435 3.24750458 3.17059893 3.09369329
- 3.03642344 2.9987894  2.96115535 2.92565143 2.89227761 2.85890379]</t>
+          <t>[3.43690084 3.43690084 3.43690084 4.48820956 4.48820956 4.48820956
+ 4.43080545 4.43080545 4.43080545 3.85028008 3.85028008 3.85028008
+ 3.55772829 3.55772829 3.55772829 3.35348125 3.35348125 3.35348125]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5943,9 +5940,9 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593]</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5968,9 +5965,9 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593]</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5993,9 +5990,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932 ]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6018,9 +6015,9 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932 ]</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -6043,10 +6040,10 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[136.81349772 136.81349772 136.81349772 136.81349772 136.81349772
- 136.81349772 136.07146709 134.5954647  133.13017494 127.80767371
- 118.94120785 110.49459789 104.47129409 100.63483541  96.89347011
-  93.44996756  90.28836857  87.19889598]</t>
+          <t>[121.97143588 121.97143588 121.97143588 158.5792626  158.5792626
+ 158.5792626  156.58886926 156.58886926 156.58886926 136.40501998
+ 136.40501998 136.40501998 126.19551488 126.19551488 126.19551488
+ 119.0525864  119.0525864  119.0525864 ]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6241,8 +6238,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[2.92449099 2.92449099 2.92449099 1.37850083 1.37850083 1.37850083
- 0.46550464 0.45684251 0.44818038 0.37087427 0.31433897 0.25780367]</t>
+          <t>[1.60814358 1.60814358 1.60814358 1.11661658 1.11661658 1.11661658
+ 0.59335848 0.55168064 0.5100028  0.45136752 0.39151196 0.33165639]</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -6265,8 +6262,8 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -6289,8 +6286,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6313,8 +6310,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -6337,8 +6334,8 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6361,8 +6358,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[87.72202461 87.72202461 87.72202461 41.66602941 41.66602941 41.66602941
- 13.87371518 13.11354997 12.38167179  8.67808658  5.28370768  2.91482043]</t>
+          <t>[57.50850094 57.50850094 57.50850094 40.0127394  40.0127394  40.0127394
+ 19.88540996 15.98256326 12.62702454  9.04237114  5.90101752  3.58721635]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -6456,8 +6453,8 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 11.03279711 10.82962464 10.62645216 10.42327969  8.94851979  7.4737599
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.18674566 10.37349132  9.56023698  8.37315799  7.18607899
   5.999     ]</t>
         </is>
       </c>
@@ -6481,8 +6478,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[0.07942713 0.07942713 0.07942713 0.03729566 0.03729566 0.03729566
- 0.01268313 0.01268313 0.01268313 0.0114042  0.0114042  0.0114042 ]</t>
+          <t>[0.04       0.04       0.04       0.02774562 0.02774562 0.02774562
+ 0.01524562 0.01524562 0.01524562 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6587,9 +6584,9 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[  2427925.55809678]
+          <t>[[  2427925.55809734]
  [    29094.73368413]
- [-22486760.82086648]]</t>
+ [-18203437.82903421]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6612,8 +6609,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[-4.65609502e+06]
- [ 3.51605136e+08]
+          <t>[[-4.66691836e+06]
+ [ 3.52449303e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -6637,8 +6634,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[1528428.77960717 1528428.77960717 3056857.55921434       0.
-       0.               0.        ]</t>
+          <t>[1800000. 1800000. 3600000.       0.       0.       0.]</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -6730,7 +6726,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[2531057.76302859]</t>
+          <t>[2093953.92058338]</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6753,7 +6749,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[-2.52739596e+00 -3.73366943e-02  9.17758583e+01]</t>
+          <t>[-3.05497896e+00 -4.51305681e-02  1.06799292e+02]</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6776,7 +6772,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[3.11826609e+10 3.10451739e+10 3.03401534e+08 7.86163621e+02
+          <t>[3.11303766e+10 3.09928895e+10 2.95064482e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -6885,16 +6881,16 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -17734.54919991]
- [ -19037.5338827 ]
- [ -23149.01700337]
- [ -30727.62810066]
- [ -42699.80635211]
- [ -61065.38653636]
- [ -88807.23626633]
- [ -99214.95112891]
- [-111034.61275205]
- [-124542.43715559]
+ [ -15323.38852087]
+ [ -16450.58580019]
+ [ -20006.18431181]
+ [ -26563.4182924 ]
+ [ -37201.47746339]
+ [ -53640.36964699]
+ [ -78643.669866  ]
+ [ -92005.852428  ]
+ [-107912.48247064]
+ [-126971.18758834]
  [      0.        ]
  [      0.        ]
  [      0.        ]
@@ -6993,18 +6989,18 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[[-371.84077546]
- [-427.80214794]
- [-466.73527224]
- [-497.26444096]
- [-532.43672531]
- [-561.35780635]
- [-586.12743279]
- [-588.86514954]
- [-590.25139628]
- [-590.45662189]
- [-518.04287323]
- [-439.80795348]
+          <t>[[-403.67324327]
+ [-463.99223289]
+ [-506.07689928]
+ [-539.14849713]
+ [-577.32846487]
+ [-608.78594237]
+ [-635.77318933]
+ [-607.57213646]
+ [-576.72669337]
+ [-543.31035535]
+ [-485.37183342]
+ [-422.32008783]
  [-352.18249915]]</t>
         </is>
       </c>
@@ -7028,24 +7024,24 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[[-50277904.61847596]
- [-47736882.52214473]
- [-45108074.41249686]
- [-42838871.1605086 ]
- [-40547333.22492653]
- [-38207573.63651254]
- [-35791002.26940398]
- [-33256958.29553053]
- [-30540391.59434625]
- [-29402156.38976117]
- [-28246854.20737986]
- [-27069369.93065058]
- [-26089694.48385603]
- [-25325109.44745531]
- [-24570119.73870109]
- [-24197151.02262382]
- [-23828436.85547952]
- [-23463977.23726892]]</t>
+          <t>[[-51383991.76686193]
+ [-48755127.93976052]
+ [-46050413.34165608]
+ [-43058509.56437047]
+ [-40047289.2580319 ]
+ [-36994353.51956458]
+ [-33907077.06539561]
+ [-30708108.19569941]
+ [-27338190.23811243]
+ [-26074933.5331278 ]
+ [-24763383.2882158 ]
+ [-23394140.25273154]
+ [-22277543.10318568]
+ [-21370448.40998816]
+ [-20463353.71679047]
+ [-20035844.25052459]
+ [-19608334.78425836]
+ [-19180825.31799179]]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7068,24 +7064,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[-4511095.69880479]
- [-9940295.1549424 ]
- [-9452251.61828182]
- [ 2428652.18147424]
- [ 2429005.54345582]
- [ 2429365.72818089]
- [ 2429745.63109646]
- [ 2430166.83756391]
- [ 2430667.47629776]
- [ 2429185.89628913]
- [ 2429264.8795618 ]
- [ 2429354.93159829]
- [ 2429263.81201189]
- [ 2428945.504774  ]
- [ 2428977.82328371]
- [ 2428462.29517323]
- [ 2428467.61569756]
- [ 2428472.92751946]]</t>
+          <t>[[ -4817824.00222664]
+ [-10705687.86911276]
+ [-10084885.27546256]
+ [  2428927.98033037]
+ [  2429326.83632275]
+ [  2429726.4901859 ]
+ [  2430115.42981441]
+ [  2430559.00869673]
+ [  2431061.45283779]
+ [  2429205.46398956]
+ [  2429315.2802203 ]
+ [  2429438.36938206]
+ [  2429300.68849077]
+ [  2429018.97494077]
+ [  2429061.27178203]
+ [  2428475.9650518 ]
+ [  2428486.15889459]
+ [  2428496.22895075]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7108,24 +7104,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[ -57967.0617499 ]
- [-127959.62775426]
- [-122501.8366481 ]
- [  29104.04604827]
- [  29108.59872463]
- [  29113.25172311]
- [  29118.17239374]
- [  29123.64141163]
- [  29130.15510972]
- [  29111.03394396]
- [  29112.06770227]
- [  29113.247338  ]
- [  29112.08134542]
- [  29107.96654422]
- [  29108.39802902]
- [  29101.70833882]
- [  29101.7808251 ]
- [  29101.85337815]]</t>
+          <t>[[ -61901.7920661 ]
+ [-137784.97663292]
+ [-130642.37385399]
+ [  29107.58517574]
+ [  29112.72408857]
+ [  29117.88742436]
+ [  29122.92793016]
+ [  29128.68903547]
+ [  29135.22912319]
+ [  29111.27939699]
+ [  29112.71214196]
+ [  29114.31887762]
+ [  29112.54944845]
+ [  29108.91101728]
+ [  29109.47130708]
+ [  29101.88027085]
+ [  29102.01576577]
+ [  29102.14977458]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7148,24 +7144,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[ -871131.51485076]
- [-3158914.61885889]
- [-5662630.73363434]
- [-6422577.49657646]
- [-6175794.08881578]
- [-5927970.86106235]
- [-5679304.32288671]
- [-5429987.28012059]
- [-5180218.98111227]
- [-5080311.34725196]
- [-4980380.36853715]
- [-4880428.34795023]
- [-4780463.06348964]
- [-4680470.28872981]
- [-4580432.16449175]
- [-4530409.22757529]
- [-4480376.42487269]
- [-4430333.57933724]]</t>
+          <t>[[ -844402.12628592]
+ [-3197923.9083544 ]
+ [-5756059.69464034]
+ [-6413179.30889228]
+ [-6166430.8571395 ]
+ [-5918901.01997102]
+ [-5670792.40219803]
+ [-5422302.7328712 ]
+ [-5173643.87474573]
+ [-5074262.81107894]
+ [-4974887.72189646]
+ [-4875532.63426267]
+ [-4776210.9748911 ]
+ [-4676907.24784799]
+ [-4577610.08608682]
+ [-4527978.45616379]
+ [-4478349.61583712]
+ [-4428724.56075504]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7188,24 +7184,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[6.79898045e+07]
- [2.46227257e+08]
- [4.40552822e+08]
- [4.98451496e+08]
- [4.77881718e+08]
- [4.57231598e+08]
- [4.36516630e+08]
- [4.15751974e+08]
- [3.94953235e+08]
- [3.86633976e+08]
- [3.78313071e+08]
- [3.69990716e+08]
- [3.61667525e+08]
- [3.53342413e+08]
- [3.45014016e+08]
- [3.40849600e+08]
- [3.36684481e+08]
- [3.32518648e+08]]</t>
+          <t>[[6.59081389e+07]
+ [2.49282198e+08]
+ [4.47837243e+08]
+ [4.97724129e+08]
+ [4.77157084e+08]
+ [4.56529729e+08]
+ [4.35857980e+08]
+ [4.15157326e+08]
+ [3.94444283e+08]
+ [3.86165654e+08]
+ [3.77887619e+08]
+ [3.69611265e+08]
+ [3.61337625e+08]
+ [3.53065512e+08]
+ [3.44794050e+08]
+ [3.40659677e+08]
+ [3.36525557e+08]
+ [3.32391765e+08]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7228,24 +7224,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 214325.40162237]
- [ 468341.43990233]
- [ 809092.30642371]
- [1299683.61552658]
- [1299672.41854074]
- [1299661.1115441 ]
- [1299649.90887946]
- [1299638.60807339]
- [1299626.63996711]
- [1299615.1964642 ]
- [1299613.05114125]
- [1299610.70873847]
- [1299607.1753447 ]
- [1299603.65454315]
- [1299601.23478533]
- [1299598.70626666]
- [1299598.1809931 ]
- [1299597.66786517]]</t>
+          <t>[[ 222582.2902224 ]
+ [ 482281.45553022]
+ [ 822407.34184278]
+ [1299629.22762655]
+ [1299618.30132186]
+ [1299607.30465953]
+ [1299597.90610977]
+ [1299586.48599288]
+ [1299574.65292731]
+ [1299577.43455049]
+ [1299572.05723722]
+ [1299566.47439961]
+ [1299568.83452664]
+ [1299563.69072628]
+ [1299559.51206566]
+ [1299561.07484678]
+ [1299558.98552151]
+ [1299556.89620297]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7297,11 +7293,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.91161888 12.91161888 12.91161888
- 12.91161888 12.86512649 12.8186341  12.77214171 12.47502037 12.17789903
- 11.88077769 11.73538034 11.58998298 11.44458563 11.31564746 11.1867093
- 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 11.03279711 10.82962464 10.62645216 10.42327969  8.94851979  7.4737599
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         11.18674566 10.37349132  9.56023698  8.37315799  7.18607899
   5.999     ]</t>
         </is>
       </c>
@@ -7325,11 +7321,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.07942713 0.07942713 0.07942713 0.03729566 0.03729566 0.03729566
- 0.01268313 0.01268313 0.01268313 0.0114042  0.0114042  0.0114042 ]</t>
+          <t>[0.08581616 0.08581616 0.08581616 0.11231616 0.11231616 0.11231616
+ 0.11086611 0.11086611 0.11086611 0.09622188 0.09622188 0.09622188
+ 0.08885577 0.08885577 0.08885577 0.08371851 0.08371851 0.08371851
+ 0.04       0.04       0.04       0.02774562 0.02774562 0.02774562
+ 0.01524562 0.01524562 0.01524562 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -7477,11 +7473,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[3.32205909 3.32205909 3.32205909 3.32205909 3.32205909 3.32205909
- 3.31604214 3.30400824 3.29197435 3.24750458 3.17059893 3.09369329
- 3.03642344 2.9987894  2.96115535 2.92565143 2.89227761 2.85890379
- 2.92449099 2.92449099 2.92449099 1.37850083 1.37850083 1.37850083
- 0.46550464 0.45684251 0.44818038 0.37087427 0.31433897 0.25780367]</t>
+          <t>[3.43690084 3.43690084 3.43690084 4.48820956 4.48820956 4.48820956
+ 4.43080545 4.43080545 4.43080545 3.85028008 3.85028008 3.85028008
+ 3.55772829 3.55772829 3.55772829 3.35348125 3.35348125 3.35348125
+ 1.60814358 1.60814358 1.60814358 1.11661658 1.11661658 1.11661658
+ 0.59335848 0.55168064 0.5100028  0.45136752 0.39151196 0.33165639]</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -7504,11 +7500,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333
- 1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593
+ 0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -7531,11 +7527,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333
- 1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593
+ 0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -7558,11 +7554,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799
- 43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932
+ 28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -7585,11 +7581,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799
- 43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932
+ 28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -7612,12 +7608,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[136.81349772 136.81349772 136.81349772 136.81349772 136.81349772
- 136.81349772 136.07146709 134.5954647  133.13017494 127.80767371
- 118.94120785 110.49459789 104.47129409 100.63483541  96.89347011
-  93.44996756  90.28836857  87.19889598  87.72202461  87.72202461
-  87.72202461  41.66602941  41.66602941  41.66602941  13.87371518
-  13.11354997  12.38167179   8.67808658   5.28370768   2.91482043]</t>
+          <t>[121.97143588 121.97143588 121.97143588 158.5792626  158.5792626
+ 158.5792626  156.58886926 156.58886926 156.58886926 136.40501998
+ 136.40501998 136.40501998 126.19551488 126.19551488 126.19551488
+ 119.0525864  119.0525864  119.0525864   57.50850094  57.50850094
+  57.50850094  40.0127394   40.0127394   40.0127394   19.88540996
+  15.98256326  12.62702454   9.04237114   5.90101752   3.58721635]</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -7640,36 +7636,36 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[[-5.02779046e+07]
- [-4.77368825e+07]
- [-4.51080744e+07]
- [-4.28388712e+07]
- [-4.05473332e+07]
- [-3.82075736e+07]
- [-3.57910023e+07]
- [-3.32569583e+07]
- [-3.05403916e+07]
- [-2.94021564e+07]
- [-2.82468542e+07]
- [-2.70693699e+07]
- [-2.60896945e+07]
- [-2.53251094e+07]
- [-2.45701197e+07]
- [-2.41971510e+07]
- [-2.38284369e+07]
- [-2.34639772e+07]
- [-1.97808570e+07]
- [-1.70758135e+07]
- [-1.43702030e+07]
- [-1.25436757e+07]
- [-1.07165875e+07]
- [-8.88895230e+06]
- [-8.51466354e+06]
- [-8.14708933e+06]
- [-7.78634942e+06]
- [-7.50675436e+06]
- [-7.26926499e+06]
- [ 1.30821718e-08]]</t>
+          <t>[[-5.13839918e+07]
+ [-4.87551279e+07]
+ [-4.60504133e+07]
+ [-4.30585096e+07]
+ [-4.00472893e+07]
+ [-3.69943535e+07]
+ [-3.39070771e+07]
+ [-3.07081082e+07]
+ [-2.73381902e+07]
+ [-2.60749335e+07]
+ [-2.47633833e+07]
+ [-2.33941403e+07]
+ [-2.22775431e+07]
+ [-2.13704484e+07]
+ [-2.04633537e+07]
+ [-2.00358443e+07]
+ [-1.96083348e+07]
+ [-1.91808253e+07]
+ [-1.67129357e+07]
+ [-1.52229067e+07]
+ [-1.37322657e+07]
+ [-1.22504810e+07]
+ [-1.07680881e+07]
+ [-9.28510072e+06]
+ [-8.80912819e+06]
+ [-8.36614671e+06]
+ [-7.95645249e+06]
+ [-7.61769009e+06]
+ [-7.32357747e+06]
+ [-4.80213203e-09]]</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -7692,36 +7688,36 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[[-4.51109570e+06]
- [-9.94029515e+06]
- [-9.45225162e+06]
- [ 2.42865218e+06]
- [ 2.42900554e+06]
- [ 2.42936573e+06]
- [ 2.42974563e+06]
- [ 2.43016684e+06]
- [ 2.43066748e+06]
- [ 2.42918590e+06]
- [ 2.42926488e+06]
- [ 2.42935493e+06]
- [ 2.42926381e+06]
- [ 2.42894550e+06]
- [ 2.42897782e+06]
- [ 2.42846230e+06]
- [ 2.42846762e+06]
- [ 2.42847293e+06]
- [ 2.43232566e+06]
- [ 2.43289357e+06]
- [ 2.43340128e+06]
- [ 2.43223089e+06]
- [ 2.43298452e+06]
- [ 2.43357575e+06]
- [ 2.42921943e+06]
- [ 2.42931936e+06]
- [ 2.42938343e+06]
- [ 2.42910635e+06]
- [ 2.42894889e+06]
- [ 8.19049545e+02]]</t>
+          <t>[[-4.81782400e+06]
+ [-1.07056879e+07]
+ [-1.00848853e+07]
+ [ 2.42892798e+06]
+ [ 2.42932684e+06]
+ [ 2.42972649e+06]
+ [ 2.43011543e+06]
+ [ 2.43055901e+06]
+ [ 2.43106145e+06]
+ [ 2.42920546e+06]
+ [ 2.42931528e+06]
+ [ 2.42943837e+06]
+ [ 2.42930069e+06]
+ [ 2.42901897e+06]
+ [ 2.42906127e+06]
+ [ 2.42847597e+06]
+ [ 2.42848616e+06]
+ [ 2.42849623e+06]
+ [ 2.43019208e+06]
+ [ 2.43067035e+06]
+ [ 2.43109768e+06]
+ [ 2.43165072e+06]
+ [ 2.43228866e+06]
+ [ 2.43278936e+06]
+ [ 2.42962693e+06]
+ [ 2.42962252e+06]
+ [ 2.42958750e+06]
+ [ 2.42935779e+06]
+ [ 2.42919152e+06]
+ [ 1.05083077e+03]]</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -7744,36 +7740,36 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[[-5.79670617e+04]
- [-1.27959628e+05]
- [-1.22501837e+05]
- [ 2.91040460e+04]
- [ 2.91085987e+04]
- [ 2.91132517e+04]
- [ 2.91181724e+04]
- [ 2.91236414e+04]
- [ 2.91301551e+04]
- [ 2.91110339e+04]
- [ 2.91120677e+04]
- [ 2.91132473e+04]
- [ 2.91120813e+04]
- [ 2.91079665e+04]
- [ 2.91083980e+04]
- [ 2.91017083e+04]
- [ 2.91017808e+04]
- [ 2.91018534e+04]
- [ 2.91520873e+04]
- [ 2.91597259e+04]
- [ 2.91666373e+04]
- [ 2.91516848e+04]
- [ 2.91623864e+04]
- [ 2.91711365e+04]
- [ 2.91124951e+04]
- [ 2.91142687e+04]
- [ 2.91156221e+04]
- [ 2.91121243e+04]
- [ 2.91105060e+04]
- [ 1.30797696e+01]]</t>
+          <t>[[-6.19017921e+04]
+ [-1.37784977e+05]
+ [-1.30642374e+05]
+ [ 2.91075852e+04]
+ [ 2.91127241e+04]
+ [ 2.91178874e+04]
+ [ 2.91229279e+04]
+ [ 2.91286890e+04]
+ [ 2.91352291e+04]
+ [ 2.91112794e+04]
+ [ 2.91127121e+04]
+ [ 2.91143189e+04]
+ [ 2.91125494e+04]
+ [ 2.91089110e+04]
+ [ 2.91094713e+04]
+ [ 2.91018803e+04]
+ [ 2.91020158e+04]
+ [ 2.91021498e+04]
+ [ 2.91242733e+04]
+ [ 2.91307058e+04]
+ [ 2.91365228e+04]
+ [ 2.91441797e+04]
+ [ 2.91532370e+04]
+ [ 2.91606452e+04]
+ [ 2.91180660e+04]
+ [ 2.91183747e+04]
+ [ 2.91183610e+04]
+ [ 2.91156597e+04]
+ [ 2.91140315e+04]
+ [ 1.65297996e+01]]</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -7796,36 +7792,36 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[[-8.71131515e+05]
- [-3.15891462e+06]
- [-5.66263073e+06]
- [-6.42257750e+06]
- [-6.17579409e+06]
- [-5.92797086e+06]
- [-5.67930432e+06]
- [-5.42998728e+06]
- [-5.18021898e+06]
- [-5.08031135e+06]
- [-4.98038037e+06]
- [-4.88042835e+06]
- [-4.78046306e+06]
- [-4.68047029e+06]
- [-4.58043216e+06]
- [-4.53040923e+06]
- [-4.48037642e+06]
- [-4.43033358e+06]
- [-4.06760696e+06]
- [-3.70492017e+06]
- [-3.34275157e+06]
- [-2.82557897e+06]
- [-2.30782751e+06]
- [-1.79064378e+06]
- [-1.48086763e+06]
- [-1.17046594e+06]
- [-8.59666381e+05]
- [-5.69344743e+05]
- [-2.78753824e+05]
- [-3.12853914e-04]]</t>
+          <t>[[-8.44402126e+05]
+ [-3.19792391e+06]
+ [-5.75605969e+06]
+ [-6.41317931e+06]
+ [-6.16643086e+06]
+ [-5.91890102e+06]
+ [-5.67079240e+06]
+ [-5.42230273e+06]
+ [-5.17364387e+06]
+ [-5.07426281e+06]
+ [-4.97488772e+06]
+ [-4.87553263e+06]
+ [-4.77621097e+06]
+ [-4.67690725e+06]
+ [-4.57761009e+06]
+ [-4.52797846e+06]
+ [-4.47834962e+06]
+ [-4.42872456e+06]
+ [-4.06878764e+06]
+ [-3.70783377e+06]
+ [-3.34631803e+06]
+ [-2.82879278e+06]
+ [-2.31038592e+06]
+ [-1.79214747e+06]
+ [-1.48168262e+06]
+ [-1.17091774e+06]
+ [-8.59897579e+05]
+ [-5.69438427e+05]
+ [-2.78820574e+05]
+ [-4.10041937e-04]]</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -7848,36 +7844,36 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[[ 6.79898045e+07]
- [ 2.46227257e+08]
- [ 4.40552822e+08]
- [ 4.98451496e+08]
- [ 4.77881718e+08]
- [ 4.57231598e+08]
- [ 4.36516630e+08]
- [ 4.15751974e+08]
- [ 3.94953235e+08]
- [ 3.86633976e+08]
- [ 3.78313071e+08]
- [ 3.69990716e+08]
- [ 3.61667525e+08]
- [ 3.53342413e+08]
- [ 3.45014016e+08]
- [ 3.40849600e+08]
- [ 3.36684481e+08]
- [ 3.32518648e+08]
- [ 3.02326965e+08]
- [ 2.72141549e+08]
- [ 2.41998881e+08]
- [ 1.98962571e+08]
- [ 1.55895639e+08]
- [ 1.12883919e+08]
- [ 8.71261114e+07]
- [ 6.13367007e+07]
- [ 3.55340883e+07]
- [ 1.14524829e+07]
- [-1.26183897e+07]
- [ 1.95903778e-02]]</t>
+          <t>[[ 6.59081389e+07]
+ [ 2.49282198e+08]
+ [ 4.47837243e+08]
+ [ 4.97724129e+08]
+ [ 4.77157084e+08]
+ [ 4.56529729e+08]
+ [ 4.35857980e+08]
+ [ 4.15157326e+08]
+ [ 3.94444283e+08]
+ [ 3.86165654e+08]
+ [ 3.77887619e+08]
+ [ 3.69611265e+08]
+ [ 3.61337625e+08]
+ [ 3.53065512e+08]
+ [ 3.44794050e+08]
+ [ 3.40659677e+08]
+ [ 3.36525557e+08]
+ [ 3.32391765e+08]
+ [ 3.02414026e+08]
+ [ 2.72362408e+08]
+ [ 2.42271991e+08]
+ [ 1.99213118e+08]
+ [ 1.56100508e+08]
+ [ 1.13013427e+08]
+ [ 8.72047620e+07]
+ [ 6.13852373e+07]
+ [ 3.55617689e+07]
+ [ 1.14656540e+07]
+ [-1.26139112e+07]
+ [ 2.60654209e-02]]</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -7900,35 +7896,35 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[[ 214325.40162237]
- [ 468341.43990233]
- [ 809092.30642371]
- [1299683.61552658]
- [1299672.41854074]
- [1299661.1115441 ]
- [1299649.90887946]
- [1299638.60807339]
- [1299626.63996711]
- [1299615.1964642 ]
- [1299613.05114125]
- [1299610.70873847]
- [1299607.1753447 ]
- [1299603.65454315]
- [1299601.23478533]
- [1299598.70626666]
- [1299598.1809931 ]
- [1299597.66786517]
- [1299587.06578833]
- [1299571.92032341]
- [1299556.76088609]
- [1299631.91912868]
- [1299610.20131361]
- [1299588.47755622]
- [1299774.05718873]
- [1299766.56112377]
- [1299759.02102202]
- [1299805.19568287]
- [1299852.5225212 ]
+          <t>[[ 222582.2902224 ]
+ [ 482281.45553022]
+ [ 822407.34184278]
+ [1299629.22762655]
+ [1299618.30132186]
+ [1299607.30465953]
+ [1299597.90610977]
+ [1299586.48599288]
+ [1299574.65292731]
+ [1299577.43455049]
+ [1299572.05723722]
+ [1299566.47439961]
+ [1299568.83452664]
+ [1299563.69072628]
+ [1299559.51206566]
+ [1299561.07484678]
+ [1299558.98552151]
+ [1299556.89620297]
+ [1299646.55644401]
+ [1299631.39746168]
+ [1299616.21057507]
+ [1299662.62975129]
+ [1299640.87778328]
+ [1299619.11761548]
+ [1299717.54896655]
+ [1299722.7852993 ]
+ [1299729.93794376]
+ [1299749.99261191]
+ [1299779.98882851]
  [      0.        ]]</t>
         </is>
       </c>
@@ -8074,7 +8070,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>[12.91161888]</t>
+          <t>[12.]</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -8626,7 +8622,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[4113520.05626548]</t>
+          <t>[3188249.17895589]</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -8649,7 +8645,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[1563982.87290503]</t>
+          <t>[1126879.03045982]</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -8672,7 +8668,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[5058520.05626548]</t>
+          <t>[4133249.17895589]</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -8695,7 +8691,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[337.23467042]</t>
+          <t>[275.54994526]</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -8718,7 +8714,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[1563982.87290503]</t>
+          <t>[1126879.03045982]</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -8787,7 +8783,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[4113520.05626548]</t>
+          <t>[3188249.17895589]</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -8810,7 +8806,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[4113520.05626548]</t>
+          <t>[3188249.17895589]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8833,9 +8829,9 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[371.84077546 427.80214794 466.73527224 497.26444096 532.43672531
- 561.35780635 586.12743279 588.86514954 590.25139628 590.45662189
- 518.04287323 439.80795348 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 607.57213646 576.72669337 543.31035535
+ 485.37183342 422.32008783 352.18249915]</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -9050,8 +9046,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 11.03279711 10.82962464 10.62645216 10.42327969  8.94851979  7.4737599
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.18674566 10.37349132  9.56023698  8.37315799  7.18607899
   5.999     ]</t>
         </is>
       </c>
@@ -9146,9 +9142,9 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[371.84077546 427.80214794 466.73527224 497.26444096 532.43672531
- 561.35780635 586.12743279 588.86514954 590.25139628 590.45662189
- 518.04287323 439.80795348 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 607.57213646 576.72669337 543.31035535
+ 485.37183342 422.32008783 352.18249915]</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -9288,9 +9284,9 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[-371.84077546 -427.80214794 -466.73527224 -497.26444096 -532.43672531
- -561.35780635 -586.12743279 -588.86514954 -590.25139628 -590.45662189
- -518.04287323 -439.80795348 -352.18249915]</t>
+          <t>[-403.67324327 -463.99223289 -506.07689928 -539.14849713 -577.32846487
+ -608.78594237 -635.77318933 -607.57213646 -576.72669337 -543.31035535
+ -485.37183342 -422.32008783 -352.18249915]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9338,7 +9334,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 10.42327969  5.999     ]</t>
+          <t>[12.         12.         12.          9.56023698  5.999     ]</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -9361,7 +9357,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[0.07942713 0.03729566 0.01268313 0.0114042 ]</t>
+          <t>[0.04       0.02774562 0.01524562 0.015     ]</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -9426,7 +9422,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 10.42327969  5.999     ]</t>
+          <t>[12.         12.         12.          9.56023698  5.999     ]</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -9449,7 +9445,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[0.07942713 0.03729566 0.01268313 0.0114042 ]</t>
+          <t>[0.04       0.02774562 0.01524562 0.015     ]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9685,8 +9681,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[0.07942713 0.07942713 0.07942713 0.03729566 0.03729566 0.03729566
- 0.01268313 0.01268313 0.01268313 0.0114042  0.0114042  0.0114042 ]</t>
+          <t>[0.04       0.04       0.04       0.02774562 0.02774562 0.02774562
+ 0.01524562 0.01524562 0.01524562 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -9869,8 +9865,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[2.92449099 2.92449099 2.92449099 1.37850083 1.37850083 1.37850083
- 0.46550464 0.45684251 0.44818038 0.37087427 0.31433897 0.25780367]</t>
+          <t>[1.60814358 1.60814358 1.60814358 1.11661658 1.11661658 1.11661658
+ 0.59335848 0.55168064 0.5100028  0.45136752 0.39151196 0.33165639]</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -9893,8 +9889,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -9917,8 +9913,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -9941,8 +9937,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -9965,8 +9961,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -9989,8 +9985,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[87.72202461 87.72202461 87.72202461 41.66602941 41.66602941 41.66602941
- 13.87371518 13.11354997 12.38167179  8.67808658  5.28370768  2.91482043]</t>
+          <t>[57.50850094 57.50850094 57.50850094 40.0127394  40.0127394  40.0127394
+ 19.88540996 15.98256326 12.62702454  9.04237114  5.90101752  3.58721635]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10084,17 +10080,17 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[[-19781717.32498923]
- [-17076106.80547576]
- [-14370081.22748045]
- [-12542993.09215569]
- [-10715357.84689177]
- [ -8887264.28873678]
- [ -8512834.64612646]
- [ -8145239.31076618]
- [ -7784491.25319133]
- [ -7505241.36816595]
- [ -7268472.13721729]
+          <t>[[-16713408.75295492]
+ [-15222767.78372784]
+ [-13731677.73279913]
+ [-12249284.81599234]
+ [-10766297.46319257]
+ [ -9282811.21846886]
+ [ -8806844.90267511]
+ [ -8364165.83604784]
+ [ -7954800.75405883]
+ [ -7616475.05027639]
+ [ -7322940.79369266]
  [ -7074256.27587359]]</t>
         </is>
       </c>
@@ -10118,18 +10114,18 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[[2428268.71992721]
- [2428868.71554343]
- [2429413.98088555]
- [2429592.92493654]
- [2430429.00947942]
- [2431104.76249318]
- [2428738.4691234 ]
- [2428879.50827857]
- [2428986.1559526 ]
- [2428829.89396988]
- [2428753.73167759]
- [2428631.45818966]]</t>
+          <t>[[2428218.61168827]
+ [2428724.23557944]
+ [2429183.91494729]
+ [2429800.12362497]
+ [2430508.6848915 ]
+ [2431081.36461835]
+ [2429104.71879029]
+ [2429165.61660999]
+ [2429200.09983885]
+ [2429074.88820738]
+ [2428992.43903914]
+ [2428858.15142539]]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10152,18 +10148,18 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[[29099.25792387]
- [29107.27200767]
- [29114.63004673]
- [29117.2189793 ]
- [29128.90846233]
- [29138.67358443]
- [29106.14922641]
- [29108.42745158]
- [29110.30440236]
- [29108.38015559]
- [29107.7973808 ]
- [29106.84930446]]</t>
+          <t>[[29098.59220257]
+ [29105.34505881]
+ [29111.54727794]
+ [29119.9726845 ]
+ [29129.87653242]
+ [29138.14899167]
+ [29111.15814582]
+ [29112.29405385]
+ [29113.16057104]
+ [29111.80933635]
+ [29111.2466799 ]
+ [29110.23258559]]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10186,18 +10182,18 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[[-4303983.6298089 ]
- [-3950557.94488326]
- [-3596314.23843089]
- [-3088496.63741572]
- [-2578675.24255495]
- [-2068059.91240579]
- [-1761404.94016935]
- [-1453804.74023871]
- [-1145491.92293907]
- [ -857179.3497929 ]
- [ -568218.48714506]
- [ -278501.76632589]]</t>
+          <t>[[-4314575.57293807]
+ [-3960490.78563949]
+ [-3605134.28275111]
+ [-3095350.66869899]
+ [-2583607.24056005]
+ [-2071008.09813203]
+ [-1763333.62689152]
+ [-1455067.42350163]
+ [-1146239.89419163]
+ [ -857519.23053568]
+ [ -568279.0558847 ]
+ [ -278501.80903787]]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10220,18 +10216,18 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[[ 3.22228634e+08]
- [ 2.92753833e+08]
- [ 2.63218751e+08]
- [ 2.20898460e+08]
- [ 1.78436855e+08]
- [ 1.35925090e+08]
- [ 1.10403813e+08]
- [ 8.48253461e+07]
- [ 5.92084975e+07]
- [ 3.52752654e+07]
- [ 1.13220373e+07]
- [-1.26341966e+07]]</t>
+          <t>[[ 3.23055137e+08]
+ [ 2.93530631e+08]
+ [ 2.63912167e+08]
+ [ 2.21445132e+08]
+ [ 1.78840236e+08]
+ [ 1.36181295e+08]
+ [ 1.10583554e+08]
+ [ 8.49517954e+07]
+ [ 5.92916867e+07]
+ [ 3.53233544e+07]
+ [ 1.13423807e+07]
+ [-1.26341968e+07]]</t>
         </is>
       </c>
       <c r="E396" t="inlineStr"/>
@@ -10254,18 +10250,18 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[[1299587.084936  ]
- [1299571.92514489]
- [1299556.76252982]
- [1299631.91768105]
- [1299610.19319765]
- [1299588.46293559]
- [1299773.99773899]
- [1299766.4954917 ]
- [1299758.95334963]
- [1299805.11353851]
- [1299852.4436007 ]
- [1299923.24041749]]</t>
+          <t>[[1299646.58952453]
+ [1299631.40228286]
+ [1299616.20915959]
+ [1299662.62112014]
+ [1299640.86022423]
+ [1299619.09133139]
+ [1299717.48571289]
+ [1299722.71745119]
+ [1299729.87427111]
+ [1299749.93261974]
+ [1299779.93794828]
+ [1299822.99016677]]</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -10439,18 +10435,18 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>[[-371.84077546]
- [-427.80214794]
- [-466.73527224]
- [-497.26444096]
- [-532.43672531]
- [-561.35780635]
- [-586.12743279]
- [-588.86514954]
- [-590.25139628]
- [-590.45662189]
- [-518.04287323]
- [-439.80795348]
+          <t>[[-403.67324327]
+ [-463.99223289]
+ [-506.07689928]
+ [-539.14849713]
+ [-577.32846487]
+ [-608.78594237]
+ [-635.77318933]
+ [-607.57213646]
+ [-576.72669337]
+ [-543.31035535]
+ [-485.37183342]
+ [-422.32008783]
  [-352.18249915]]</t>
         </is>
       </c>
@@ -10474,7 +10470,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>[1563982.87290503]</t>
+          <t>[1126879.03045982]</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -10497,7 +10493,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[44.95446865]</t>
+          <t>[54.70934854]</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -10520,7 +10516,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>[5.08749865e+09 5.08749865e+09 4.60506013e+07 0.00000000e+00
+          <t>[5.03521430e+09 5.03521430e+09 3.77135492e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10575,10 +10571,10 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          17734.54919991
-  19037.5338827   23149.01700337  30727.62810066  42699.80635211
-  61065.38653636  88807.23626633  99214.95112891 111034.61275205
- 124542.43715559      0.              0.              0.
+          <t>[     0.              0.              0.          15323.38852087
+  16450.58580019  20006.18431181  26563.4182924   37201.47746339
+  53640.36964699  78643.669866    92005.852428   107912.48247064
+ 126971.18758834      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -10829,10 +10825,10 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          17734.54919991
-  19037.5338827   23149.01700337  30727.62810066  42699.80635211
-  61065.38653636  88807.23626633  99214.95112891 111034.61275205
- 124542.43715559      0.              0.              0.
+          <t>[     0.              0.              0.          15323.38852087
+  16450.58580019  20006.18431181  26563.4182924   37201.47746339
+  53640.36964699  78643.669866    92005.852428   107912.48247064
+ 126971.18758834      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11214,10 +11210,10 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -17734.54919991
-  -19037.5338827   -23149.01700337  -30727.62810066  -42699.80635211
-  -61065.38653636  -88807.23626633  -99214.95112891 -111034.61275205
- -124542.43715559       0.               0.               0.
+          <t>[      0.               0.               0.          -15323.38852087
+  -16450.58580019  -20006.18431181  -26563.4182924   -37201.47746339
+  -53640.36964699  -78643.669866    -92005.852428   -107912.48247064
+ -126971.18758834       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -11264,8 +11260,8 @@
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>[167.68336204 167.68336204 166.77766618 160.08389224 151.46339818
- 146.11919973]</t>
+          <t>[139.83381023 106.84126383 108.23866656 124.71175674 135.05031553
+ 143.33748074]</t>
         </is>
       </c>
       <c r="E436" t="inlineStr"/>
@@ -11284,7 +11280,7 @@
       <c r="C437" t="inlineStr"/>
       <c r="D437" t="inlineStr">
         <is>
-          <t>[1.         1.         0.98919755 0.93021029 0.9632859  0.96620109]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E437" t="inlineStr"/>
@@ -11303,7 +11299,7 @@
       <c r="C438" t="inlineStr"/>
       <c r="D438" t="inlineStr">
         <is>
-          <t>[1.         1.         0.98919755 0.93021029 0.9632859  0.96620109]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E438" t="inlineStr"/>
@@ -11322,7 +11318,7 @@
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1.]</t>
+          <t>[1.30879966 0.98708962 0.86791069 0.92344662 0.94218424]</t>
         </is>
       </c>
       <c r="E439" t="inlineStr"/>
@@ -11366,10 +11362,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>[6.45580944 6.45580944 6.45580944 6.45580944 6.45580944 6.45580944
- 6.45580944 6.43256324 6.40931705 6.38607086 6.23751019 6.08894952
- 5.94038885 5.86769017 5.79499149 5.72229281 5.65782373 5.59335465
- 5.52888557]</t>
+          <t>[6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6. 6.]</t>
         </is>
       </c>
       <c r="E441" t="inlineStr"/>
@@ -11392,7 +11385,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[  0.          0.        -45.4901346]</t>
+          <t>[  0.   0. -45.]</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -11415,7 +11408,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[11633.32590231]</t>
+          <t>[10178.76019763]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11438,7 +11431,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[1.16932239e+08]</t>
+          <t>[1.02311689e+08]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11480,7 +11473,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>[110.86121156]</t>
+          <t>[113.09733553]</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -11503,7 +11496,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[978.02369556]</t>
+          <t>[1017.87601976]</t>
         </is>
       </c>
       <c r="E447" t="inlineStr"/>
@@ -11526,7 +11519,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[978.02369556]</t>
+          <t>[1017.87601976]</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -11549,8 +11542,8 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[1.19241590e+07 1.19241590e+07 3.67717848e+05 7.92147690e+09
- 7.92147690e+09 0.00000000e+00]</t>
+          <t>[1.04332292e+07 1.04332292e+07 2.95200000e+05 7.04278538e+09
+ 7.04278538e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E449" t="inlineStr"/>
@@ -11622,10 +11615,8 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.91161888 12.91161888 12.91161888
- 12.91161888 12.86512649 12.8186341  12.77214171 12.47502037 12.17789903
- 11.88077769 11.73538034 11.58998298 11.44458563 11.31564746 11.1867093
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.
+ 12.]</t>
         </is>
       </c>
       <c r="E452" t="inlineStr"/>
@@ -11879,8 +11870,8 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>[25912.06086472 25912.06086472 25771.26429095 24730.67166287
- 23390.55730362 22559.76535385]</t>
+          <t>[26807.82654494 35008.03454417 34560.28248872 30032.18464168
+ 27750.28062811 26157.1537854 ]</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -11907,8 +11898,8 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[533572.64109777 533572.64109779 524922.31232597 463870.710607
- 392475.85811185 352124.63742444]</t>
+          <t>[475688.59994995 618459.12412061 610696.59012598 531979.5779036
+ 492162.50804015 464305.08697723]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -11935,8 +11926,8 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[533572.64109777 533572.64109779 524922.31232597 463870.710607
- 392475.85811185 352124.63742444]</t>
+          <t>[475688.59994995 618459.12412061 610696.59012598 531979.5779036
+ 492162.50804015 464305.08697723]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -11963,8 +11954,8 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>[1.27863082e+13 1.27863082e+13 1.25790154e+13 1.11160007e+13
- 9.40512480e+12 8.43816529e+12]</t>
+          <t>[1.13991996e+13 1.48204918e+13 1.46344738e+13 1.27481327e+13
+ 1.17939734e+13 1.11264099e+13]</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -11991,8 +11982,8 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>[1.27863082e+13 1.27863082e+13 1.25790154e+13 1.11160007e+13
- 9.40512480e+12 8.43816529e+12]</t>
+          <t>[1.13991996e+13 1.48204918e+13 1.46344738e+13 1.27481327e+13
+ 1.17939734e+13 1.11264099e+13]</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12019,8 +12010,8 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>[1.01395424e+13 1.01395424e+13 9.97515921e+12 8.81498858e+12
- 7.45826397e+12 6.69146507e+12]</t>
+          <t>[9.03956529e+12 1.17526500e+13 1.16051377e+13 1.01092692e+13
+ 9.35262087e+12 8.82324309e+12]</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12047,8 +12038,8 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[6.20945623e+11 6.20945623e+11 6.17571634e+11 5.92635314e+11
- 5.60521383e+11 5.40612637e+11]</t>
+          <t>[6.42411372e+11 8.38917674e+11 8.28187934e+11 7.19678520e+11
+ 6.64995941e+11 6.26818926e+11]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12156,12 +12147,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.32208939 0.10098004 0.10098004 0.        ]
- [0.         0.         0.32208939 0.10098004 0.10098004 0.        ]
- [0.         0.         0.32384907 0.10208971 0.10208971 0.        ]
- [0.         0.         0.33747567 0.11088934 0.11088934 0.        ]
- [0.         0.         0.35681065 0.12400348 0.12400348 0.        ]
- [0.         0.         0.36995066 0.13333679 0.13333679 0.        ]]</t>
+          <t>[[0.         0.         0.31132699 0.10527055 0.10527055 0.        ]
+ [0.         0.         0.23840242 0.08096897 0.08096897 0.        ]
+ [0.         0.         0.24149108 0.08199817 0.08199817 0.        ]
+ [0.         0.         0.27790186 0.09413143 0.09413143 0.        ]
+ [0.         0.         0.30075372 0.10174688 0.10174688 0.        ]
+ [0.         0.         0.31907141 0.1078515  0.1078515  0.        ]]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12184,12 +12175,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[[0.52903825 0.52903825 0.         0.         0.         0.05049002]
- [0.52903825 0.52903825 0.         0.         0.         0.05049002]
- [0.53192062 0.53192062 0.         0.         0.         0.05104485]
- [0.55423814 0.55423814 0.         0.         0.         0.05544467]
- [0.58589573 0.58589573 0.         0.         0.         0.06200174]
- [0.60740407 0.60740407 0.         0.         0.         0.06666839]]</t>
+          <t>[[0.51107963 0.51107963 0.         0.         0.         0.05263527]
+ [0.39095964 0.39095964 0.         0.         0.         0.04048449]
+ [0.39604747 0.39604747 0.         0.         0.         0.04099908]
+ [0.45602362 0.45602362 0.         0.         0.         0.04706572]
+ [0.4936641  0.4936641  0.         0.         0.         0.05087344]
+ [0.52383558 0.52383558 0.         0.         0.         0.05392575]]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12212,7 +12203,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>[1299.90820532]</t>
+          <t>[1380.32352866]</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -12235,7 +12226,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>[6463886.28323875]</t>
+          <t>[7724393.8875664]</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -12258,7 +12249,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>[2663456.07126732]</t>
+          <t>[3252053.14379521]</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -12281,7 +12272,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[51.6045125]</t>
+          <t>[53.15894069]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12304,7 +12295,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[9.53977558e+09 9.53977558e+09 1.05604184e+08 0.00000000e+00
+          <t>[1.19603242e+10 1.19603242e+10 1.15124994e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12328,9 +12319,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.91161888 12.91161888 12.91161888
- 12.88837268 12.8418803  12.79538791 12.62358104 12.3264597  12.02933836
- 11.80807901 11.66268166 11.51728431 11.38011655 11.25117838 11.12224021]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12353,8 +12342,9 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239
- 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239]</t>
+          <t>[0.09182329 0.09182329 0.09182329 0.12017829 0.12017829 0.12017829
+ 0.11862674 0.11862674 0.11862674 0.10295741 0.10295741 0.10295741
+ 0.09507568 0.09507568 0.09507568 0.0895788  0.0895788  0.0895788 ]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12402,7 +12392,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[2763456.07126732]</t>
+          <t>[3352053.14379521]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12425,7 +12415,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[6963886.28323875]</t>
+          <t>[8224393.8875664]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12448,7 +12438,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[53.53671211]</t>
+          <t>[54.70548716]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12471,7 +12461,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>[1.06438040e+10 1.06438040e+10 1.08661042e+08 0.00000000e+00
+          <t>[1.30646242e+10 1.30646242e+10 1.18724994e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12495,7 +12485,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>[4327438.94417235]</t>
+          <t>[4478932.17425503]</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -12518,7 +12508,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[11077406.33950423]</t>
+          <t>[11412643.06652228]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12568,7 +12558,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[0.21999998]</t>
+          <t>[0.21999995]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -12591,7 +12581,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[0.22098828]</t>
+          <t>[0.22099545]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -12614,7 +12604,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[0.21999998 0.22098828 0.8692823  0.9267258  0.99908037 1.6293864 ]</t>
+          <t>[0.21999995 0.22099545 0.95335908 1.02271937 1.02595459 1.6884195 ]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -12637,7 +12627,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>[0.22098828 0.9267258  1.82476572]</t>
+          <t>[0.22099545 1.02271937 1.87297294]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -12660,7 +12650,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>[0.21999998 0.8692823  1.6293864 ]</t>
+          <t>[0.21999995 0.95335908 1.6884195 ]</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
@@ -12683,7 +12673,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[4.18733236 0.         0.        ]</t>
+          <t>[4.24656215 0.         0.        ]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -12702,9 +12692,9 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[  0.94299335   0.71159619  -2.83831302   3.76085032  -1.57712684]
- [ -3.20734092   1.23151623   6.4905895   -5.93261214   2.41784733]
- [ -9.43279552  12.66010331  14.16741323   6.66564206 -23.06036308]]</t>
+          <t>[[  0.86060921  -0.26070267   0.83660018  -0.32871474  -0.10779197]
+ [ -3.23863334   1.48017513   7.47017553  -8.14336143   3.43164411]
+ [ -7.81476672  10.11881944  20.27988489 -12.81723224  -8.76670536]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -12723,9 +12713,9 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[  0.93597493   0.7076746   -2.80610393   3.70831846  -1.54586406]
- [ -3.19364465   0.90940191   7.42028175  -8.08668984   3.95065083]
- [ -6.77879104   8.54375175   5.04299123  13.11705127 -18.92500321]]</t>
+          <t>[[ 0.85463727 -0.26176584  0.85676323 -0.36684263 -0.08279204]
+ [-3.19916018  1.16953355  8.06215912 -9.90751453  4.87498204]
+ [-6.06216328  7.19635896 11.55443698 -2.80690768 -8.88172498]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -12744,7 +12734,7 @@
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[[ -0.54906484   7.13044976 -33.52185172  52.29107061 -24.35060381]
+          <t>[[ -1.92216741   7.34091429 -11.45585437  12.7118736   -5.6747661 ]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -12765,9 +12755,9 @@
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>[[  0.58908491   1.92716668  -4.78286261   5.56845563  -2.30184462]
- [ -0.0956948    2.994939    -6.71827737   8.03254078  -3.21350761]
- [  5.33008201  -6.90608578  25.44711148 -29.11159714   6.24048943]]</t>
+          <t>[[  0.93726298   1.45009398  -4.2575621    4.68327633  -1.8130712 ]
+ [ -0.03506648   3.17551256  -6.73445746   7.24927876  -2.65526738]
+ [  5.6705601   -7.35382399  17.85087716 -19.30733789   4.13972461]]</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
@@ -12786,9 +12776,9 @@
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>[[ 0.57851773  1.94591812 -4.82836394  5.61488187 -2.31095378]
- [-0.17505457  3.15460627 -7.20611645  8.48874599 -3.26218124]
- [ 2.46762012 -1.86076455  8.88688975 -9.01716189  0.52341657]]</t>
+          <t>[[ 0.92574239  1.47149922 -4.29785713  4.72055226 -1.81993675]
+ [-0.16678314  3.4311002  -7.33674487  7.7977252  -2.72529739]
+ [ 2.94625672 -2.42857911  6.49889539 -6.45677012  0.44019712]]</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -12807,9 +12797,9 @@
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>[[ -3.40893847  27.48707814 -75.32085376  89.91085778 -37.6681437 ]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[  -5.96513732   47.05810307 -128.03724121  149.17851521  -61.23423975]
+ [   0.            0.            0.            0.            0.        ]
+ [   0.            0.            0.            0.            0.        ]]</t>
         </is>
       </c>
       <c r="E501" t="inlineStr"/>
@@ -12832,37 +12822,37 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>[[1.94114736e-04]
- [3.19088539e-04]
- [4.52012107e-05]
- [2.60180096e-03]
- [7.93958668e-03]
- [1.58082532e-02]
- [2.61032868e-02]
- [3.87262520e-02]
- [5.35900309e-02]
- [7.06114105e-02]
- [7.80105243e-02]
- [8.57596181e-02]
- [9.38770132e-02]
- [1.02378269e-01]
- [1.11272264e-01]
- [1.20564697e-01]
- [1.25362082e-01]
- [1.30262928e-01]
- [1.35269571e-01]
- [1.74590285e-01]
- [2.18933578e-01]
- [2.67797793e-01]
- [3.49086907e-01]
- [4.44579120e-01]
- [5.51199703e-01]
- [6.22735012e-01]
- [7.01194880e-01]
- [7.84815288e-01]
- [8.66369597e-01]
- [9.49532709e-01]
- [1.03059312e+00]]</t>
+          <t>[[2.10229869e-04]
+ [3.52729280e-04]
+ [5.92709425e-05]
+ [2.94853840e-03]
+ [8.53339424e-03]
+ [1.62984044e-02]
+ [2.61534216e-02]
+ [3.80218803e-02]
+ [5.18236044e-02]
+ [6.74667099e-02]
+ [7.42457370e-02]
+ [8.13393479e-02]
+ [8.87407916e-02]
+ [9.64593365e-02]
+ [1.04496047e-01]
+ [1.12843643e-01]
+ [1.17135582e-01]
+ [1.21507010e-01]
+ [1.25956963e-01]
+ [1.62770037e-01]
+ [2.07247446e-01]
+ [2.58627297e-01]
+ [3.45328147e-01]
+ [4.46837864e-01]
+ [5.59951080e-01]
+ [6.33922659e-01]
+ [7.13179992e-01]
+ [7.97104901e-01]
+ [8.78739010e-01]
+ [9.61831430e-01]
+ [1.04319925e+00]]</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -12885,7 +12875,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[1.03059312]</t>
+          <t>[1.04319925]</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -12908,24 +12898,24 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>[[-50277904.61847596]
- [-47736882.52214473]
- [-45108074.41249686]
- [-42838871.1605086 ]
- [-40547333.22492653]
- [-38207573.63651254]
- [-35791002.26940398]
- [-33256958.29553053]
- [-30540391.59434625]
- [-29402156.38976117]
- [-28246854.20737986]
- [-27069369.93065058]
- [-26089694.48385603]
- [-25325109.44745531]
- [-24570119.73870109]
- [-24197151.02262382]
- [-23828436.85547952]
- [-23463977.23726892]]</t>
+          <t>[[-51383991.76686193]
+ [-48755127.93976052]
+ [-46050413.34165608]
+ [-43058509.56437047]
+ [-40047289.2580319 ]
+ [-36994353.51956458]
+ [-33907077.06539561]
+ [-30708108.19569941]
+ [-27338190.23811243]
+ [-26074933.5331278 ]
+ [-24763383.2882158 ]
+ [-23394140.25273154]
+ [-22277543.10318568]
+ [-21370448.40998816]
+ [-20463353.71679047]
+ [-20035844.25052459]
+ [-19608334.78425836]
+ [-19180825.31799179]]</t>
         </is>
       </c>
       <c r="E504" t="inlineStr"/>
@@ -12948,24 +12938,24 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>[[-4511095.69880479]
- [-9940295.1549424 ]
- [-9452251.61828182]
- [ 2428652.18147424]
- [ 2429005.54345582]
- [ 2429365.72818089]
- [ 2429745.63109646]
- [ 2430166.83756391]
- [ 2430667.47629776]
- [ 2429185.89628913]
- [ 2429264.8795618 ]
- [ 2429354.93159829]
- [ 2429263.81201189]
- [ 2428945.504774  ]
- [ 2428977.82328371]
- [ 2428462.29517323]
- [ 2428467.61569756]
- [ 2428472.92751946]]</t>
+          <t>[[ -4817824.00222664]
+ [-10705687.86911276]
+ [-10084885.27546256]
+ [  2428927.98033037]
+ [  2429326.83632275]
+ [  2429726.4901859 ]
+ [  2430115.42981441]
+ [  2430559.00869673]
+ [  2431061.45283779]
+ [  2429205.46398956]
+ [  2429315.2802203 ]
+ [  2429438.36938206]
+ [  2429300.68849077]
+ [  2429018.97494077]
+ [  2429061.27178203]
+ [  2428475.9650518 ]
+ [  2428486.15889459]
+ [  2428496.22895075]]</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
@@ -12988,24 +12978,24 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>[[ -57967.0617499 ]
- [-127959.62775426]
- [-122501.8366481 ]
- [  29104.04604827]
- [  29108.59872463]
- [  29113.25172311]
- [  29118.17239374]
- [  29123.64141163]
- [  29130.15510972]
- [  29111.03394396]
- [  29112.06770227]
- [  29113.247338  ]
- [  29112.08134542]
- [  29107.96654422]
- [  29108.39802902]
- [  29101.70833882]
- [  29101.7808251 ]
- [  29101.85337815]]</t>
+          <t>[[ -61901.7920661 ]
+ [-137784.97663292]
+ [-130642.37385399]
+ [  29107.58517574]
+ [  29112.72408857]
+ [  29117.88742436]
+ [  29122.92793016]
+ [  29128.68903547]
+ [  29135.22912319]
+ [  29111.27939699]
+ [  29112.71214196]
+ [  29114.31887762]
+ [  29112.54944845]
+ [  29108.91101728]
+ [  29109.47130708]
+ [  29101.88027085]
+ [  29102.01576577]
+ [  29102.14977458]]</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -13028,24 +13018,24 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>[[ -871131.51485076]
- [-3158914.61885889]
- [-5662630.73363434]
- [-6422577.49657646]
- [-6175794.08881578]
- [-5927970.86106235]
- [-5679304.32288671]
- [-5429987.28012059]
- [-5180218.98111227]
- [-5080311.34725196]
- [-4980380.36853715]
- [-4880428.34795023]
- [-4780463.06348964]
- [-4680470.28872981]
- [-4580432.16449175]
- [-4530409.22757529]
- [-4480376.42487269]
- [-4430333.57933724]]</t>
+          <t>[[ -844402.12628592]
+ [-3197923.9083544 ]
+ [-5756059.69464034]
+ [-6413179.30889228]
+ [-6166430.8571395 ]
+ [-5918901.01997102]
+ [-5670792.40219803]
+ [-5422302.7328712 ]
+ [-5173643.87474573]
+ [-5074262.81107894]
+ [-4974887.72189646]
+ [-4875532.63426267]
+ [-4776210.9748911 ]
+ [-4676907.24784799]
+ [-4577610.08608682]
+ [-4527978.45616379]
+ [-4478349.61583712]
+ [-4428724.56075504]]</t>
         </is>
       </c>
       <c r="E507" t="inlineStr"/>
@@ -13068,24 +13058,24 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>[[6.79898045e+07]
- [2.46227257e+08]
- [4.40552822e+08]
- [4.98451496e+08]
- [4.77881718e+08]
- [4.57231598e+08]
- [4.36516630e+08]
- [4.15751974e+08]
- [3.94953235e+08]
- [3.86633976e+08]
- [3.78313071e+08]
- [3.69990716e+08]
- [3.61667525e+08]
- [3.53342413e+08]
- [3.45014016e+08]
- [3.40849600e+08]
- [3.36684481e+08]
- [3.32518648e+08]]</t>
+          <t>[[6.59081389e+07]
+ [2.49282198e+08]
+ [4.47837243e+08]
+ [4.97724129e+08]
+ [4.77157084e+08]
+ [4.56529729e+08]
+ [4.35857980e+08]
+ [4.15157326e+08]
+ [3.94444283e+08]
+ [3.86165654e+08]
+ [3.77887619e+08]
+ [3.69611265e+08]
+ [3.61337625e+08]
+ [3.53065512e+08]
+ [3.44794050e+08]
+ [3.40659677e+08]
+ [3.36525557e+08]
+ [3.32391765e+08]]</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -13108,24 +13098,24 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>[[ 214325.40162237]
- [ 468341.43990233]
- [ 809092.30642371]
- [1299683.61552658]
- [1299672.41854074]
- [1299661.1115441 ]
- [1299649.90887946]
- [1299638.60807339]
- [1299626.63996711]
- [1299615.1964642 ]
- [1299613.05114125]
- [1299610.70873847]
- [1299607.1753447 ]
- [1299603.65454315]
- [1299601.23478533]
- [1299598.70626666]
- [1299598.1809931 ]
- [1299597.66786517]]</t>
+          <t>[[ 222582.2902224 ]
+ [ 482281.45553022]
+ [ 822407.34184278]
+ [1299629.22762655]
+ [1299618.30132186]
+ [1299607.30465953]
+ [1299597.90610977]
+ [1299586.48599288]
+ [1299574.65292731]
+ [1299577.43455049]
+ [1299572.05723722]
+ [1299566.47439961]
+ [1299568.83452664]
+ [1299563.69072628]
+ [1299559.51206566]
+ [1299561.07484678]
+ [1299558.98552151]
+ [1299556.89620297]]</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -13148,9 +13138,9 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>[[ 2.42865218e+06]
- [ 2.91040460e+04]
- [-4.51080744e+07]]</t>
+          <t>[[ 2.42892798e+06]
+ [ 2.91075852e+04]
+ [-4.60504133e+07]]</t>
         </is>
       </c>
       <c r="E510" t="inlineStr"/>
@@ -13173,9 +13163,9 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[[-6.66811915e+06]
- [ 5.18924967e+08]
- [ 1.29968362e+06]]</t>
+          <t>[[-6.65893238e+06]
+ [ 5.18214006e+08]
+ [ 1.29962923e+06]]</t>
         </is>
       </c>
       <c r="E511" t="inlineStr"/>
@@ -13227,11 +13217,11 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.91161888 12.91161888 12.91161888
- 12.91161888 12.86512649 12.8186341  12.77214171 12.47502037 12.17789903
- 11.88077769 11.73538034 11.58998298 11.44458563 11.31564746 11.1867093
- 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 11.03279711 10.82962464 10.62645216 10.42327969  8.94851979  7.4737599
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         12.         12.         12.         12.         12.
+ 12.         11.18674566 10.37349132  9.56023698  8.37315799  7.18607899
   5.999     ]</t>
         </is>
       </c>
@@ -13255,11 +13245,11 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.07942713 0.07942713 0.07942713 0.03729566 0.03729566 0.03729566
- 0.01268313 0.01268313 0.01268313 0.0114042  0.0114042  0.0114042 ]</t>
+          <t>[0.08581616 0.08581616 0.08581616 0.11231616 0.11231616 0.11231616
+ 0.11086611 0.11086611 0.11086611 0.09622188 0.09622188 0.09622188
+ 0.08885577 0.08885577 0.08885577 0.08371851 0.08371851 0.08371851
+ 0.04       0.04       0.04       0.02774562 0.02774562 0.02774562
+ 0.01524562 0.01524562 0.01524562 0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13358,11 +13348,11 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[3.32205909 3.32205909 3.32205909 3.32205909 3.32205909 3.32205909
- 3.31604214 3.30400824 3.29197435 3.24750458 3.17059893 3.09369329
- 3.03642344 2.9987894  2.96115535 2.92565143 2.89227761 2.85890379
- 2.92449099 2.92449099 2.92449099 1.37850083 1.37850083 1.37850083
- 0.46550464 0.45684251 0.44818038 0.37087427 0.31433897 0.25780367]</t>
+          <t>[3.43690084 3.43690084 3.43690084 4.48820956 4.48820956 4.48820956
+ 4.43080545 4.43080545 4.43080545 3.85028008 3.85028008 3.85028008
+ 3.55772829 3.55772829 3.55772829 3.35348125 3.35348125 3.35348125
+ 1.60814358 1.60814358 1.60814358 1.11661658 1.11661658 1.11661658
+ 0.59335848 0.55168064 0.5100028  0.45136752 0.39151196 0.33165639]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13385,11 +13375,11 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333
- 1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593
+ 0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13412,11 +13402,11 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[1.89022248 1.89022248 1.89022248 1.89022248 1.89022248 1.89022248
- 1.88680824 1.87997976 1.87315129 1.84791753 1.80427858 1.76063976
- 1.72814304 1.70678834 1.68543368 1.66528774 1.64635052 1.62741333
- 1.66496222 1.66496222 1.66496222 0.78343239 0.78343239 0.78343239
- 0.26429473 0.25937924 0.25446375 0.21056902 0.178487   0.14640502]</t>
+          <t>[1.95664225 1.95664225 1.95664225 2.55780878 2.55780878 2.55780878
+ 2.52494988 2.52494988 2.52494988 2.19286886 2.19286886 2.19286886
+ 2.02566887 2.02566887 2.02566887 1.90899593 1.90899593 1.90899593
+ 0.91392404 0.91392404 0.91392404 0.63429397 0.63429397 0.63429397
+ 0.33690801 0.31325714 0.28960629 0.25632638 0.22236031 0.18839429]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13439,12 +13429,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[136.81349772 136.81349772 136.81349772 136.81349772 136.81349772
- 136.81349772 136.07146709 134.5954647  133.13017494 127.80767371
- 118.94120785 110.49459789 104.47129409 100.63483541  96.89347011
-  93.44996756  90.28836857  87.19889598  87.72202461  87.72202461
-  87.72202461  41.66602941  41.66602941  41.66602941  13.87371518
-  13.11354997  12.38167179   8.67808658   5.28370768   2.91482043]</t>
+          <t>[121.97143588 121.97143588 121.97143588 158.5792626  158.5792626
+ 158.5792626  156.58886926 156.58886926 156.58886926 136.40501998
+ 136.40501998 136.40501998 126.19551488 126.19551488 126.19551488
+ 119.0525864  119.0525864  119.0525864   57.50850094  57.50850094
+  57.50850094  40.0127394   40.0127394   40.0127394   19.88540996
+  15.98256326  12.62702454   9.04237114   5.90101752   3.58721635]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13467,11 +13457,11 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799
- 43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932
+ 28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -13494,11 +13484,11 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[68.40674886 68.40674886 68.40674886 68.40674886 68.40674886 68.40674886
- 68.03573355 67.29773235 66.56508747 63.90383686 59.47060392 55.24729894
- 52.23564704 50.31741771 48.44673505 46.72498378 45.14418429 43.59944799
- 43.86101231 43.86101231 43.86101231 20.83301471 20.83301471 20.83301471
-  6.93685759  6.55677498  6.1908359   4.33904329  2.64185384  1.45741022]</t>
+          <t>[60.98571794 60.98571794 60.98571794 79.2896313  79.2896313  79.2896313
+ 78.29443463 78.29443463 78.29443463 68.20250999 68.20250999 68.20250999
+ 63.09775744 63.09775744 63.09775744 59.5262932  59.5262932  59.5262932
+ 28.75425047 28.75425047 28.75425047 20.0063697  20.0063697  20.0063697
+  9.94270498  7.99128163  6.31351227  4.52118557  2.95050876  1.79360818]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -13623,36 +13613,36 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[[-5.02779046e+07]
- [-4.77368825e+07]
- [-4.51080744e+07]
- [-4.28388712e+07]
- [-4.05473332e+07]
- [-3.82075736e+07]
- [-3.57910023e+07]
- [-3.32569583e+07]
- [-3.05403916e+07]
- [-2.94021564e+07]
- [-2.82468542e+07]
- [-2.70693699e+07]
- [-2.60896945e+07]
- [-2.53251094e+07]
- [-2.45701197e+07]
- [-2.41971510e+07]
- [-2.38284369e+07]
- [-2.34639772e+07]
- [-1.97808570e+07]
- [-1.70758135e+07]
- [-1.43702030e+07]
- [-1.25436757e+07]
- [-1.07165875e+07]
- [-8.88895230e+06]
- [-8.51466354e+06]
- [-8.14708933e+06]
- [-7.78634942e+06]
- [-7.50675436e+06]
- [-7.26926499e+06]
- [ 1.30821718e-08]]</t>
+          <t>[[-5.13839918e+07]
+ [-4.87551279e+07]
+ [-4.60504133e+07]
+ [-4.30585096e+07]
+ [-4.00472893e+07]
+ [-3.69943535e+07]
+ [-3.39070771e+07]
+ [-3.07081082e+07]
+ [-2.73381902e+07]
+ [-2.60749335e+07]
+ [-2.47633833e+07]
+ [-2.33941403e+07]
+ [-2.22775431e+07]
+ [-2.13704484e+07]
+ [-2.04633537e+07]
+ [-2.00358443e+07]
+ [-1.96083348e+07]
+ [-1.91808253e+07]
+ [-1.67129357e+07]
+ [-1.52229067e+07]
+ [-1.37322657e+07]
+ [-1.22504810e+07]
+ [-1.07680881e+07]
+ [-9.28510072e+06]
+ [-8.80912819e+06]
+ [-8.36614671e+06]
+ [-7.95645249e+06]
+ [-7.61769009e+06]
+ [-7.32357747e+06]
+ [-4.80213203e-09]]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13675,36 +13665,36 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[[-4.51109570e+06]
- [-9.94029515e+06]
- [-9.45225162e+06]
- [ 2.42865218e+06]
- [ 2.42900554e+06]
- [ 2.42936573e+06]
- [ 2.42974563e+06]
- [ 2.43016684e+06]
- [ 2.43066748e+06]
- [ 2.42918590e+06]
- [ 2.42926488e+06]
- [ 2.42935493e+06]
- [ 2.42926381e+06]
- [ 2.42894550e+06]
- [ 2.42897782e+06]
- [ 2.42846230e+06]
- [ 2.42846762e+06]
- [ 2.42847293e+06]
- [ 2.43232566e+06]
- [ 2.43289357e+06]
- [ 2.43340128e+06]
- [ 2.43223089e+06]
- [ 2.43298452e+06]
- [ 2.43357575e+06]
- [ 2.42921943e+06]
- [ 2.42931936e+06]
- [ 2.42938343e+06]
- [ 2.42910635e+06]
- [ 2.42894889e+06]
- [ 8.19049545e+02]]</t>
+          <t>[[-4.81782400e+06]
+ [-1.07056879e+07]
+ [-1.00848853e+07]
+ [ 2.42892798e+06]
+ [ 2.42932684e+06]
+ [ 2.42972649e+06]
+ [ 2.43011543e+06]
+ [ 2.43055901e+06]
+ [ 2.43106145e+06]
+ [ 2.42920546e+06]
+ [ 2.42931528e+06]
+ [ 2.42943837e+06]
+ [ 2.42930069e+06]
+ [ 2.42901897e+06]
+ [ 2.42906127e+06]
+ [ 2.42847597e+06]
+ [ 2.42848616e+06]
+ [ 2.42849623e+06]
+ [ 2.43019208e+06]
+ [ 2.43067035e+06]
+ [ 2.43109768e+06]
+ [ 2.43165072e+06]
+ [ 2.43228866e+06]
+ [ 2.43278936e+06]
+ [ 2.42962693e+06]
+ [ 2.42962252e+06]
+ [ 2.42958750e+06]
+ [ 2.42935779e+06]
+ [ 2.42919152e+06]
+ [ 1.05083077e+03]]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -13727,36 +13717,36 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>[[-5.79670617e+04]
- [-1.27959628e+05]
- [-1.22501837e+05]
- [ 2.91040460e+04]
- [ 2.91085987e+04]
- [ 2.91132517e+04]
- [ 2.91181724e+04]
- [ 2.91236414e+04]
- [ 2.91301551e+04]
- [ 2.91110339e+04]
- [ 2.91120677e+04]
- [ 2.91132473e+04]
- [ 2.91120813e+04]
- [ 2.91079665e+04]
- [ 2.91083980e+04]
- [ 2.91017083e+04]
- [ 2.91017808e+04]
- [ 2.91018534e+04]
- [ 2.91520873e+04]
- [ 2.91597259e+04]
- [ 2.91666373e+04]
- [ 2.91516848e+04]
- [ 2.91623864e+04]
- [ 2.91711365e+04]
- [ 2.91124951e+04]
- [ 2.91142687e+04]
- [ 2.91156221e+04]
- [ 2.91121243e+04]
- [ 2.91105060e+04]
- [ 1.30797696e+01]]</t>
+          <t>[[-6.19017921e+04]
+ [-1.37784977e+05]
+ [-1.30642374e+05]
+ [ 2.91075852e+04]
+ [ 2.91127241e+04]
+ [ 2.91178874e+04]
+ [ 2.91229279e+04]
+ [ 2.91286890e+04]
+ [ 2.91352291e+04]
+ [ 2.91112794e+04]
+ [ 2.91127121e+04]
+ [ 2.91143189e+04]
+ [ 2.91125494e+04]
+ [ 2.91089110e+04]
+ [ 2.91094713e+04]
+ [ 2.91018803e+04]
+ [ 2.91020158e+04]
+ [ 2.91021498e+04]
+ [ 2.91242733e+04]
+ [ 2.91307058e+04]
+ [ 2.91365228e+04]
+ [ 2.91441797e+04]
+ [ 2.91532370e+04]
+ [ 2.91606452e+04]
+ [ 2.91180660e+04]
+ [ 2.91183747e+04]
+ [ 2.91183610e+04]
+ [ 2.91156597e+04]
+ [ 2.91140315e+04]
+ [ 1.65297996e+01]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -13779,36 +13769,36 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[[-8.71131515e+05]
- [-3.15891462e+06]
- [-5.66263073e+06]
- [-6.42257750e+06]
- [-6.17579409e+06]
- [-5.92797086e+06]
- [-5.67930432e+06]
- [-5.42998728e+06]
- [-5.18021898e+06]
- [-5.08031135e+06]
- [-4.98038037e+06]
- [-4.88042835e+06]
- [-4.78046306e+06]
- [-4.68047029e+06]
- [-4.58043216e+06]
- [-4.53040923e+06]
- [-4.48037642e+06]
- [-4.43033358e+06]
- [-4.06760696e+06]
- [-3.70492017e+06]
- [-3.34275157e+06]
- [-2.82557897e+06]
- [-2.30782751e+06]
- [-1.79064378e+06]
- [-1.48086763e+06]
- [-1.17046594e+06]
- [-8.59666381e+05]
- [-5.69344743e+05]
- [-2.78753824e+05]
- [-3.12853914e-04]]</t>
+          <t>[[-8.44402126e+05]
+ [-3.19792391e+06]
+ [-5.75605969e+06]
+ [-6.41317931e+06]
+ [-6.16643086e+06]
+ [-5.91890102e+06]
+ [-5.67079240e+06]
+ [-5.42230273e+06]
+ [-5.17364387e+06]
+ [-5.07426281e+06]
+ [-4.97488772e+06]
+ [-4.87553263e+06]
+ [-4.77621097e+06]
+ [-4.67690725e+06]
+ [-4.57761009e+06]
+ [-4.52797846e+06]
+ [-4.47834962e+06]
+ [-4.42872456e+06]
+ [-4.06878764e+06]
+ [-3.70783377e+06]
+ [-3.34631803e+06]
+ [-2.82879278e+06]
+ [-2.31038592e+06]
+ [-1.79214747e+06]
+ [-1.48168262e+06]
+ [-1.17091774e+06]
+ [-8.59897579e+05]
+ [-5.69438427e+05]
+ [-2.78820574e+05]
+ [-4.10041937e-04]]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -13831,36 +13821,36 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[ 6.79898045e+07]
- [ 2.46227257e+08]
- [ 4.40552822e+08]
- [ 4.98451496e+08]
- [ 4.77881718e+08]
- [ 4.57231598e+08]
- [ 4.36516630e+08]
- [ 4.15751974e+08]
- [ 3.94953235e+08]
- [ 3.86633976e+08]
- [ 3.78313071e+08]
- [ 3.69990716e+08]
- [ 3.61667525e+08]
- [ 3.53342413e+08]
- [ 3.45014016e+08]
- [ 3.40849600e+08]
- [ 3.36684481e+08]
- [ 3.32518648e+08]
- [ 3.02326965e+08]
- [ 2.72141549e+08]
- [ 2.41998881e+08]
- [ 1.98962571e+08]
- [ 1.55895639e+08]
- [ 1.12883919e+08]
- [ 8.71261114e+07]
- [ 6.13367007e+07]
- [ 3.55340883e+07]
- [ 1.14524829e+07]
- [-1.26183897e+07]
- [ 1.95903778e-02]]</t>
+          <t>[[ 6.59081389e+07]
+ [ 2.49282198e+08]
+ [ 4.47837243e+08]
+ [ 4.97724129e+08]
+ [ 4.77157084e+08]
+ [ 4.56529729e+08]
+ [ 4.35857980e+08]
+ [ 4.15157326e+08]
+ [ 3.94444283e+08]
+ [ 3.86165654e+08]
+ [ 3.77887619e+08]
+ [ 3.69611265e+08]
+ [ 3.61337625e+08]
+ [ 3.53065512e+08]
+ [ 3.44794050e+08]
+ [ 3.40659677e+08]
+ [ 3.36525557e+08]
+ [ 3.32391765e+08]
+ [ 3.02414026e+08]
+ [ 2.72362408e+08]
+ [ 2.42271991e+08]
+ [ 1.99213118e+08]
+ [ 1.56100508e+08]
+ [ 1.13013427e+08]
+ [ 8.72047620e+07]
+ [ 6.13852373e+07]
+ [ 3.55617689e+07]
+ [ 1.14656540e+07]
+ [-1.26139112e+07]
+ [ 2.60654209e-02]]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
@@ -13883,35 +13873,35 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[ 214325.40162237]
- [ 468341.43990233]
- [ 809092.30642371]
- [1299683.61552658]
- [1299672.41854074]
- [1299661.1115441 ]
- [1299649.90887946]
- [1299638.60807339]
- [1299626.63996711]
- [1299615.1964642 ]
- [1299613.05114125]
- [1299610.70873847]
- [1299607.1753447 ]
- [1299603.65454315]
- [1299601.23478533]
- [1299598.70626666]
- [1299598.1809931 ]
- [1299597.66786517]
- [1299587.06578833]
- [1299571.92032341]
- [1299556.76088609]
- [1299631.91912868]
- [1299610.20131361]
- [1299588.47755622]
- [1299774.05718873]
- [1299766.56112377]
- [1299759.02102202]
- [1299805.19568287]
- [1299852.5225212 ]
+          <t>[[ 222582.2902224 ]
+ [ 482281.45553022]
+ [ 822407.34184278]
+ [1299629.22762655]
+ [1299618.30132186]
+ [1299607.30465953]
+ [1299597.90610977]
+ [1299586.48599288]
+ [1299574.65292731]
+ [1299577.43455049]
+ [1299572.05723722]
+ [1299566.47439961]
+ [1299568.83452664]
+ [1299563.69072628]
+ [1299559.51206566]
+ [1299561.07484678]
+ [1299558.98552151]
+ [1299556.89620297]
+ [1299646.55644401]
+ [1299631.39746168]
+ [1299616.21057507]
+ [1299662.62975129]
+ [1299640.87778328]
+ [1299619.11761548]
+ [1299717.54896655]
+ [1299722.7852993 ]
+ [1299729.93794376]
+ [1299749.99261191]
+ [1299779.98882851]
  [      0.        ]]</t>
         </is>
       </c>
@@ -13935,24 +13925,24 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[-8717573.18160001]
- [ 8869663.83568032]
- [28001759.87342927]
- [34149423.46002685]
- [32897829.51737719]
- [31653168.38496686]
- [30556049.17917337]
- [29605030.97854911]
- [28685726.0516381 ]
- [29137417.10573122]
- [30300836.74391965]
- [31533839.38799736]
- [32289528.10999345]
- [32507721.88043106]
- [32716376.99818747]
- [33240838.02373293]
- [33720612.50932302]
- [34209264.44579226]]</t>
+          <t>[[-8465858.16435843]
+ [10341538.0277416 ]
+ [30664700.63834075]
+ [28073181.30340917]
+ [27187639.7451262 ]
+ [26306828.52051726]
+ [25751703.58094259]
+ [24887203.99004081]
+ [24060336.88729455]
+ [27202983.05148115]
+ [26815322.61645402]
+ [26442794.11306806]
+ [28101059.78210696]
+ [27569368.62440553]
+ [27037739.30709407]
+ [28365455.46940403]
+ [28076206.12547691]
+ [27786989.9619872 ]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -13975,24 +13965,24 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[2396852.57167608]
- [5281331.68058413]
- [5039201.21224506]
- [1346270.24597396]
- [1346456.67506735]
- [1346646.70883882]
- [1349396.78439003]
- [1354748.54517746]
- [1360183.37595114]
- [1378829.17031488]
- [1413830.5519137 ]
- [1450655.89905233]
- [1479253.90219494]
- [1498517.22995389]
- [1518501.25843993]
- [1537519.63546725]
- [1556140.95988955]
- [1575217.86726345]]</t>
+          <t>[[2473444.18282844]
+ [5495636.46229563]
+ [5195067.63589033]
+ [ 998853.72208718]
+ [ 999009.25815387]
+ [ 999165.10358582]
+ [1012306.72918147]
+ [1012481.98461778]
+ [1012680.53969079]
+ [1165018.67629827]
+ [1165068.52279727]
+ [1165124.41354222]
+ [1261133.00313584]
+ [1260993.6751681 ]
+ [1261014.35873987]
+ [1337708.61239923]
+ [1337713.84746635]
+ [1337719.01768529]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14017,17 +14007,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-25255259.77734244]
- [-47029143.93091522]
- [-40085916.32823164]
- [-33186096.76852148]
- [-26294438.40318147]
- [-19469124.31937165]
- [-12803502.72070224]
- [ -8146938.46168607]
- [ -5505111.28233392]
- [ -3019964.7947451 ]
- [  -910053.51806349]
+ [-21035596.47643478]
+ [-29862752.76381906]
+ [-25453914.49990235]
+ [-21072639.64766885]
+ [-16947684.28017482]
+ [-12594235.27355952]
+ [ -8312637.87546565]
+ [ -6185441.99809523]
+ [ -4281055.6001045 ]
+ [ -2406859.2842478 ]
+ [  -800732.65253489]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -14091,24 +14081,24 @@
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[0.04911766]
- [0.06481596]
- [0.23888659]
- [0.3593199 ]
- [0.32226287]
- [0.28591798]
- [0.25096728]
- [0.21805159]
- [0.18757207]
- [0.1731394 ]
- [0.17033734]
- [0.16910191]
- [0.16712736]
- [0.16589162]
- [0.16696371]
- [0.16963648]
- [0.17208238]
- [0.17457362]]</t>
+          <t>[[0.04826568]
+ [0.07149906]
+ [0.23360358]
+ [0.25542515]
+ [0.23211774]
+ [0.20933643]
+ [0.18964733]
+ [0.16829282]
+ [0.14840329]
+ [0.15683973]
+ [0.14885403]
+ [0.14140741]
+ [0.14545347]
+ [0.14068359]
+ [0.13798784]
+ [0.14477441]
+ [0.14330795]
+ [0.14184176]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14127,24 +14117,24 @@
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[0.08304307]
- [0.0969398 ]
- [0.43919575]
- [0.6135069 ]
- [0.52663344]
- [0.44035116]
- [0.35405831]
- [0.26873413]
- [0.18605899]
- [0.06473058]
- [0.05570108]
- [0.04871166]
- [0.04318697]
- [0.04109176]
- [0.04027158]
- [0.03683483]
- [0.0366172 ]
- [0.03640442]]</t>
+          <t>[[0.07428117]
+ [0.08657875]
+ [0.3120504 ]
+ [0.22906505]
+ [0.19641027]
+ [0.16403791]
+ [0.13599791]
+ [0.10369522]
+ [0.07245294]
+ [0.03931048]
+ [0.03360461]
+ [0.02895073]
+ [0.02962267]
+ [0.02802091]
+ [0.02697339]
+ [0.02638236]
+ [0.02587678]
+ [0.02537212]]</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -14163,24 +14153,24 @@
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[[0.13144916]
- [0.22143502]
- [0.31962943]
- [0.34589556]
- [0.33042452]
- [0.31483337]
- [0.3000718 ]
- [0.28592669]
- [0.2712288 ]
- [0.27120996]
- [0.27627116]
- [0.2829501 ]
- [0.28694871]
- [0.28749737]
- [0.28800811]
- [0.29180698]
- [0.29526062]
- [0.29881953]]</t>
+          <t>[[0.11458048]
+ [0.19800997]
+ [0.28838154]
+ [0.23530196]
+ [0.2238975 ]
+ [0.21243133]
+ [0.20350155]
+ [0.19169794]
+ [0.17968338]
+ [0.20114182]
+ [0.19567154]
+ [0.19011893]
+ [0.20004193]
+ [0.19478717]
+ [0.18953534]
+ [0.19826176]
+ [0.19552242]
+ [0.19278394]]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14203,36 +14193,36 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[[-8.71757318e+06]
- [ 8.86966384e+06]
- [ 2.80017599e+07]
- [ 3.41494235e+07]
- [ 3.28978295e+07]
- [ 3.16531684e+07]
- [ 3.05560492e+07]
- [ 2.96050310e+07]
- [ 2.86857261e+07]
- [ 2.91374171e+07]
- [ 3.03008367e+07]
- [ 3.15338394e+07]
- [ 3.22895281e+07]
- [ 3.25077219e+07]
- [ 3.27163770e+07]
- [ 3.32408380e+07]
- [ 3.37206125e+07]
- [ 3.41616431e+07]
- [ 3.12632339e+07]
- [ 2.83915073e+07]
- [ 2.55253524e+07]
- [ 4.35893411e+07]
- [ 3.35102246e+07]
- [ 2.34461516e+07]
- [ 5.03660195e+07]
- [ 3.23544820e+07]
- [ 1.28408407e+07]
- [-7.44241732e+06]
- [-3.51118232e+06]
- [ 4.52807321e-02]]</t>
+          <t>[[-8.46585816e+06]
+ [ 1.03415380e+07]
+ [ 3.06647006e+07]
+ [ 2.80731813e+07]
+ [ 2.71876397e+07]
+ [ 2.63068285e+07]
+ [ 2.57517036e+07]
+ [ 2.48872040e+07]
+ [ 2.40603369e+07]
+ [ 2.72029831e+07]
+ [ 2.68153226e+07]
+ [ 2.64427941e+07]
+ [ 2.81010598e+07]
+ [ 2.75693686e+07]
+ [ 2.70377393e+07]
+ [ 2.83654555e+07]
+ [ 2.80762061e+07]
+ [ 2.77869900e+07]
+ [ 5.27161854e+07]
+ [ 4.73715778e+07]
+ [ 4.20192554e+07]
+ [ 4.87798586e+07]
+ [ 3.71768733e+07]
+ [ 2.55821064e+07]
+ [ 3.60022825e+07]
+ [ 2.62465752e+07]
+ [ 1.24773034e+07]
+ [-5.49319835e+06]
+ [-2.07224689e+06]
+ [ 4.79086036e-02]]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14255,36 +14245,36 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[[2.39685257e+06]
- [5.28133168e+06]
- [5.03920121e+06]
- [1.34627025e+06]
- [1.34645668e+06]
- [1.34664671e+06]
- [1.34939678e+06]
- [1.35474855e+06]
- [1.36018338e+06]
- [1.37882917e+06]
- [1.41383055e+06]
- [1.45065590e+06]
- [1.47925390e+06]
- [1.49851723e+06]
- [1.51850126e+06]
- [1.53751964e+06]
- [1.55614096e+06]
- [1.57512482e+06]
- [1.54271884e+06]
- [1.54305901e+06]
- [1.54336303e+06]
- [3.27687155e+06]
- [3.27783073e+06]
- [3.27858259e+06]
- [9.70403878e+06]
- [9.89823188e+06]
- [1.01001775e+07]
- [1.22621213e+07]
- [1.46195422e+07]
- [5.59512217e+03]]</t>
+          <t>[[2.47344418e+06]
+ [5.49563646e+06]
+ [5.19506764e+06]
+ [9.98853722e+05]
+ [9.99009258e+05]
+ [9.99165104e+05]
+ [1.01230673e+06]
+ [1.01248198e+06]
+ [1.01268054e+06]
+ [1.16501868e+06]
+ [1.16506852e+06]
+ [1.16512441e+06]
+ [1.26113300e+06]
+ [1.26099368e+06]
+ [1.26101436e+06]
+ [1.33770861e+06]
+ [1.33771385e+06]
+ [1.33771902e+06]
+ [2.79486068e+06]
+ [2.79538245e+06]
+ [2.79584849e+06]
+ [4.02879635e+06]
+ [4.02979894e+06]
+ [4.03058514e+06]
+ [7.59093538e+06]
+ [8.19488402e+06]
+ [8.90283658e+06]
+ [1.01227126e+07]
+ [1.17821420e+07]
+ [5.57851696e+03]]</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -14309,34 +14299,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-2.52552598e+07]
- [-4.70291439e+07]
- [-4.00859163e+07]
- [-3.31860968e+07]
- [-2.62944384e+07]
- [-1.94691243e+07]
- [-1.28035027e+07]
- [-8.14693846e+06]
- [-5.50511128e+06]
- [-3.01996479e+06]
- [-9.10053518e+05]
+ [-2.10355965e+07]
+ [-2.98627528e+07]
+ [-2.54539145e+07]
+ [-2.10726396e+07]
+ [-1.69476843e+07]
+ [-1.25942353e+07]
+ [-8.31263788e+06]
+ [-6.18544200e+06]
+ [-4.28105560e+06]
+ [-2.40685928e+06]
+ [-8.00732653e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-1.70505985e+03]
- [-3.53195092e+03]
- [-3.95674104e+03]
- [-4.26937181e+03]
- [-9.76141235e+03]
- [-1.03810275e+04]
- [-1.09006008e+04]
- [-3.29079354e+04]
- [-3.30129216e+04]
- [-3.30452841e+04]
- [-3.44363165e+04]
- [-2.96622533e+04]
- [-2.46983525e+04]]</t>
+ [-1.69381403e+03]
+ [-7.65785203e+03]
+ [-8.57886706e+03]
+ [-9.25670214e+03]
+ [-1.42868804e+04]
+ [-1.51937541e+04]
+ [-1.59542056e+04]
+ [-2.90305970e+04]
+ [-2.75909965e+04]
+ [-2.60250398e+04]
+ [-2.42251921e+04]
+ [-2.13549166e+04]
+ [-1.83659838e+04]]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14407,36 +14397,36 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[[4.91176642e-02]
- [6.48159570e-02]
- [2.38886591e-01]
- [3.59319902e-01]
- [3.22262865e-01]
- [2.85917982e-01]
- [2.50967277e-01]
- [2.18051590e-01]
- [1.87572072e-01]
- [1.73139401e-01]
- [1.70337344e-01]
- [1.69101905e-01]
- [1.67127356e-01]
- [1.65891622e-01]
- [1.66963713e-01]
- [1.69636478e-01]
- [1.72082381e-01]
- [1.74336402e-01]
- [1.59623490e-01]
- [1.45074893e-01]
- [1.30567273e-01]
- [2.23633504e-01]
- [1.72920285e-01]
- [1.22744902e-01]
- [2.70179154e-01]
- [1.86338675e-01]
- [1.10441255e-01]
- [1.14452376e-01]
- [1.30033015e-01]
- [1.34965107e-04]]</t>
+          <t>[[4.82656839e-02]
+ [7.14990639e-02]
+ [2.33603580e-01]
+ [2.55425155e-01]
+ [2.32117744e-01]
+ [2.09336431e-01]
+ [1.89647325e-01]
+ [1.68292817e-01]
+ [1.48403288e-01]
+ [1.56839726e-01]
+ [1.48854032e-01]
+ [1.41407415e-01]
+ [1.45453473e-01]
+ [1.40683588e-01]
+ [1.37987840e-01]
+ [1.44774412e-01]
+ [1.43307952e-01]
+ [1.41846055e-01]
+ [2.69312611e-01]
+ [2.42254272e-01]
+ [2.15188313e-01]
+ [2.50703123e-01]
+ [1.92459327e-01]
+ [1.34932844e-01]
+ [1.95041984e-01]
+ [1.51850212e-01]
+ [1.00946291e-01]
+ [9.34465290e-02]
+ [1.04339296e-01]
+ [1.05567499e-04]]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14455,36 +14445,36 @@
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[[0.08304307]
- [0.0969398 ]
- [0.43919575]
- [0.6135069 ]
- [0.52663344]
- [0.44035116]
- [0.35405831]
- [0.26873413]
- [0.18605899]
- [0.06473058]
- [0.05570108]
- [0.04871166]
- [0.04318697]
- [0.04109176]
- [0.04027158]
- [0.03683483]
- [0.0366172 ]
- [0.03642943]
- [0.03631681]
- [0.03253068]
- [0.02880474]
- [0.10949801]
- [0.10095521]
- [0.0925349 ]
- [0.8463573 ]
- [0.82885916]
- [0.81195765]
- [0.99973755]
- [0.9922287 ]
- [0.00496572]]</t>
+          <t>[[0.07428117]
+ [0.08657875]
+ [0.3120504 ]
+ [0.22906505]
+ [0.19641027]
+ [0.16403791]
+ [0.13599791]
+ [0.10369522]
+ [0.07245294]
+ [0.03931048]
+ [0.03360461]
+ [0.02895073]
+ [0.02962267]
+ [0.02802091]
+ [0.02697339]
+ [0.02638236]
+ [0.02587678]
+ [0.02537086]
+ [0.10458406]
+ [0.09835576]
+ [0.09215521]
+ [0.19903747]
+ [0.18660626]
+ [0.17422082]
+ [0.56590923]
+ [0.55207761]
+ [0.54069248]
+ [0.5427991 ]
+ [0.54084512]
+ [0.00245652]]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr"/>
@@ -14503,36 +14493,36 @@
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[[2.59114032e-01]
- [4.09502933e-01]
- [5.72087362e-01]
- [6.12841320e-01]
- [5.83349848e-01]
- [5.53760693e-01]
- [5.25985029e-01]
- [4.99509823e-01]
- [4.71899453e-01]
- [4.72554576e-01]
- [4.83462936e-01]
- [4.94979198e-01]
- [5.01246112e-01]
- [5.01705410e-01]
- [5.02120103e-01]
- [5.08728911e-01]
- [5.14760082e-01]
- [5.20763879e-01]
- [4.54625446e-01]
- [4.02547635e-01]
- [3.51187219e-01]
- [6.36695296e-01]
- [5.03748242e-01]
- [3.73827807e-01]
- [1.00000011e+00]
- [8.09588728e-01]
- [6.02938018e-01]
- [5.31622501e-01]
- [8.87919153e-01]
- [3.90968312e-10]]</t>
+          <t>[[2.17032472e-01]
+ [2.90284650e-01]
+ [3.68951755e-01]
+ [2.86925727e-01]
+ [2.70732527e-01]
+ [2.54478005e-01]
+ [2.41346687e-01]
+ [2.24568297e-01]
+ [2.07352493e-01]
+ [2.31616748e-01]
+ [2.23804573e-01]
+ [2.15808096e-01]
+ [2.26230101e-01]
+ [2.19354613e-01]
+ [2.12494667e-01]
+ [2.22160442e-01]
+ [2.18625948e-01]
+ [2.15095614e-01]
+ [4.10482014e-01]
+ [3.69058481e-01]
+ [3.28052504e-01]
+ [4.03873517e-01]
+ [3.27178718e-01]
+ [2.51829312e-01]
+ [4.35129329e-01]
+ [4.32019111e-01]
+ [4.20557530e-01]
+ [4.36800823e-01]
+ [6.57551593e-01]
+ [1.96167021e-10]]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -14574,7 +14564,7 @@
       <c r="C548" t="inlineStr"/>
       <c r="D548" t="inlineStr">
         <is>
-          <t>[0.9977415]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="E548" t="inlineStr"/>
@@ -14621,26 +14611,26 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>[[2.32411620e+10 6.10356153e+12 2.32411620e+10 6.10356153e+12
-  1.61054221e+10 2.00899507e+11]
- [2.11662147e+10 4.44105979e+12 2.11662147e+10 4.44105979e+12
-  1.49854221e+10 2.00899507e+11]
- [1.90912673e+10 3.13253336e+12 1.90912673e+10 3.13253336e+12
-  1.38654221e+10 2.00899507e+11]
- [1.70163199e+10 2.13373533e+12 1.70163199e+10 2.13373533e+12
-  1.27454221e+10 2.00899507e+11]
- [1.49413726e+10 1.40041877e+12 1.49413726e+10 1.40041877e+12
-  1.16254221e+10 2.00899507e+11]
- [1.28664252e+10 8.88336788e+11 1.28664252e+10 8.88336788e+11
-  1.05054221e+10 2.00899507e+11]
- [1.07914778e+10 5.53242457e+11 1.07914778e+10 5.53242457e+11
-  9.38542214e+09 2.00899507e+11]
- [8.71653047e+09 3.50888867e+11 8.71653047e+09 3.50888867e+11
-  8.26542214e+09 2.00899507e+11]
- [6.64158310e+09 2.37029105e+11 6.64158310e+09 2.37029105e+11
-  7.14542214e+09 2.00899507e+11]
- [4.56663573e+09 1.67416256e+11 4.56663573e+09 1.67416256e+11
-  6.02542214e+09 2.00899507e+11]]</t>
+          <t>[[2.29187368e+10 5.99424000e+12 2.29187368e+10 5.99424000e+12
+  1.56800000e+10 1.61280000e+11]
+ [2.08437895e+10 4.34021663e+12 2.08437895e+10 4.34021663e+12
+  1.45600000e+10 1.61280000e+11]
+ [1.87688421e+10 3.04016856e+12 1.87688421e+10 3.04016856e+12
+  1.34400000e+10 1.61280000e+11]
+ [1.66938947e+10 2.04984889e+12 1.66938947e+10 2.04984889e+12
+  1.23200000e+10 1.61280000e+11]
+ [1.46189474e+10 1.32501070e+12 1.46189474e+10 1.32501070e+12
+  1.12000000e+10 1.61280000e+11]
+ [1.25440000e+10 8.21407078e+11 1.25440000e+10 8.21407078e+11
+  1.00800000e+10 1.61280000e+11]
+ [1.04690526e+10 4.94791111e+11 1.04690526e+10 4.94791111e+11
+  8.96000000e+09 1.61280000e+11]
+ [8.39410526e+09 3.00915885e+11 8.39410526e+09 3.00915885e+11
+  7.84000000e+09 1.61280000e+11]
+ [6.31915789e+09 1.95534486e+11 6.31915789e+09 1.95534486e+11
+  6.72000000e+09 1.61280000e+11]
+ [4.24421053e+09 1.34400000e+11 4.24421053e+09 1.34400000e+11
+  5.60000000e+09 1.61280000e+11]]</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
@@ -14663,9 +14653,9 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[371.84077546 427.80214794 466.73527224 497.26444096 532.43672531
- 561.35780635 586.12743279 588.86514954 590.25139628 590.45662189
- 518.04287323 439.80795348 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 607.57213646 576.72669337 543.31035535
+ 485.37183342 422.32008783 352.18249915]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14784,9 +14774,9 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[371.84077546 427.80214794 466.73527224 497.26444096 532.43672531
- 561.35780635 586.12743279 588.86514954 590.25139628 590.45662189
- 518.04287323 439.80795348 352.18249915]</t>
+          <t>[403.67324327 463.99223289 506.07689928 539.14849713 577.32846487
+ 608.78594237 635.77318933 607.57213646 576.72669337 543.31035535
+ 485.37183342 422.32008783 352.18249915]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14974,9 +14964,9 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>[-371.84077546 -427.80214794 -466.73527224 -497.26444096 -532.43672531
- -561.35780635 -586.12743279 -588.86514954 -590.25139628 -590.45662189
- -518.04287323 -439.80795348 -352.18249915]</t>
+          <t>[-403.67324327 -463.99223289 -506.07689928 -539.14849713 -577.32846487
+ -608.78594237 -635.77318933 -607.57213646 -576.72669337 -543.31035535
+ -485.37183342 -422.32008783 -352.18249915]</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -15020,7 +15010,7 @@
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>[138.90463949 295.81983528 845.85132944 720.01031712]</t>
+          <t>[300.         432.50064497 707.09594696 518.64123265]</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
@@ -15039,7 +15029,7 @@
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[1.         1.         0.94475404 0.57553862]</t>
+          <t>[1.         1.         0.79668641 0.62749491]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -15058,7 +15048,7 @@
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>[1.         1.         0.94475404 0.57553862]</t>
+          <t>[1.         1.         0.79668641 0.62749491]</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
@@ -15077,7 +15067,7 @@
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>[0.46955823 0.3400697  0.89916304]</t>
+          <t>[0.69364058 0.54947849 0.98388893]</t>
         </is>
       </c>
       <c r="E569" t="inlineStr"/>
@@ -15120,8 +15110,8 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[5.51639855 5.51639855 5.51639855 5.51639855 5.51639855 5.51639855
- 5.51639855 5.41481232 5.31322608 5.21163985 4.4742599  3.73687995
+          <t>[6.         6.         6.         6.         6.         6.
+ 6.         5.59337283 5.18674566 4.78011849 4.18657899 3.5930395
  2.9995    ]</t>
         </is>
       </c>
@@ -15373,8 +15363,8 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 11.03279711 10.82962464 10.62645216 10.42327969  8.94851979  7.4737599
+          <t>[12.         12.         12.         12.         12.         12.
+ 12.         11.18674566 10.37349132  9.56023698  8.37315799  7.18607899
   5.999     ]</t>
         </is>
       </c>
@@ -15628,7 +15618,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[22811.02971899 10752.30645192  3563.37157345  2451.84399527]</t>
+          <t>[12543.51992603  8709.60933668  4303.10897648  3053.79327166]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -15655,7 +15645,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[342115.89598252 162497.51471768  51142.84487303  20606.45995496]</t>
+          <t>[224283.15368546 156049.68364629  62331.99672015  23013.96833567]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -15682,7 +15672,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[342115.89598252 162497.51471768  51142.84487303  20606.45995496]</t>
+          <t>[224283.15368546 156049.68364629  62331.99672015  23013.96833567]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -15709,7 +15699,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[8.19832006e+12 3.89402144e+12 1.22556542e+12 4.93804456e+11]</t>
+          <t>[5.37462626e+12 3.73950835e+12 1.49369750e+12 5.51496965e+11]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -15736,7 +15726,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[8.19832006e+12 3.89402144e+12 1.22556542e+12 4.93804456e+11]</t>
+          <t>[5.37462626e+12 3.73950835e+12 1.49369750e+12 5.51496965e+11]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -15763,7 +15753,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[6.50126781e+12 3.08795900e+12 9.71873376e+11 3.91586934e+11]</t>
+          <t>[4.26207862e+12 2.96543013e+12 1.18450212e+12 4.37337093e+11]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -15790,7 +15780,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[5.46633830e+11 2.57663706e+11 8.53911233e+10 5.87549484e+10]</t>
+          <t>[3.00587585e+11 2.08713380e+11 1.03117876e+11 7.31798052e+10]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -15898,10 +15888,10 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.36587564 0.13457388 0.13457388 0.        ]
- [0.         0.         0.77620556 0.28332656 0.28332656 0.        ]
- [0.         0.         2.34216383 0.8753542  0.8753542  0.        ]
- [0.         0.         3.40396861 1.66283227 1.66283227 0.        ]]</t>
+          <t>[[0.         0.         0.66536347 0.22327134 0.22327134 0.        ]
+ [0.         0.         0.95825194 0.3208978  0.3208978  0.        ]
+ [0.         0.         1.93952792 0.72170694 0.72170694 0.        ]
+ [0.         0.         2.73299443 1.41063668 1.41063668 0.        ]]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15924,10 +15914,10 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[[0.60061423 0.60061423 0.         0.         0.         0.06728694]
- [1.27643434 1.27643434 0.         0.         0.         0.14166328]
- [3.85535871 3.85535871 0.         0.         0.         0.4376771 ]
- [5.60264886 5.60264886 0.         0.         0.         0.83141613]]</t>
+          <t>[[1.09418284 1.09418284 0.         0.         0.         0.11163567]
+ [1.57655606 1.57655606 0.         0.         0.         0.1604489 ]
+ [3.19226561 3.19226561 0.         0.         0.         0.36085347]
+ [4.49720555 4.49720555 0.         0.         0.         0.70531834]]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15950,7 +15940,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[647.96014461]</t>
+          <t>[595.34764406]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -15973,7 +15963,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>[4113520.05626548]</t>
+          <t>[3188249.17895589]</t>
         </is>
       </c>
       <c r="E606" t="inlineStr"/>
@@ -15996,8 +15986,8 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 11.03279711 11.03279711 11.03279711
- 10.93121087 10.7280384  10.52486593  9.68589974  8.21113985  6.73637995]</t>
+          <t>[12.         12.         12.         12.         12.         12.
+ 11.59337283 10.78011849  9.96686415  8.96669748  7.77961849  6.5925395 ]</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
@@ -16020,8 +16010,8 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[0.08498703 0.08498703 0.08498703 0.03990636 0.03990636 0.03990636
- 0.01357094 0.01357094 0.01357094 0.01220249 0.01220249 0.01220249]</t>
+          <t>[0.0428     0.0428     0.0428     0.02968782 0.02968782 0.02968782
+ 0.01631282 0.01631282 0.01631282 0.01605    0.01605    0.01605   ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -16068,18 +16058,18 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[[33766145.82515135]
- [30983994.09959174]
- [28194402.90351178]
- [49398670.45662481]
- [39480242.4197731 ]
- [29548880.24210262]
- [68711790.1364833 ]
- [51575367.24016434]
- [32969665.32157319]
- [19146894.96478608]
- [-5505894.69096689]
- [ 1765239.26984071]]</t>
+          <t>[[57023265.20151106]
+ [51789036.02164106]
+ [46535479.9647508 ]
+ [55448874.9788936 ]
+ [43998692.590084  ]
+ [32532765.55389509]
+ [49637034.20578367]
+ [42146504.34922232]
+ [31211770.66717754]
+ [18163840.5395913 ]
+ [-3732251.2264905 ]
+ [ 1894526.25721816]]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16102,18 +16092,18 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>[[ 1540281.98078962]
- [ 1540641.42517533]
- [ 1540967.99524074]
- [ 3273504.07562982]
- [ 3274568.50860005]
- [ 3275428.27339682]
- [ 9702218.80324657]
- [ 9896535.91635346]
- [10098616.11811143]
- [12260808.22538616]
- [14618448.62589425]
- [18091747.69739468]]</t>
+          <t>[[ 2792701.1621742 ]
+ [ 2793252.8714584 ]
+ [ 2793754.30480968]
+ [ 4025878.53220644]
+ [ 4026992.46257119]
+ [ 4027892.15143387]
+ [ 7589385.22212357]
+ [ 8193425.30451696]
+ [ 8901498.7704764 ]
+ [10121608.76639626]
+ [11781246.53990388]
+ [14087743.6440606 ]]</t>
         </is>
       </c>
       <c r="E611" t="inlineStr"/>
@@ -16136,18 +16126,18 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>[[ -3531.95091644]
- [ -3956.74103575]
- [ -4269.37181242]
- [ -9761.41234794]
- [-10381.0275473 ]
- [-10900.60079706]
- [-32907.9354082 ]
- [-33012.92156363]
- [-33045.28408279]
- [-34436.31653987]
- [-29662.25329977]
- [-24698.35253487]]</t>
+          <t>[[ -7657.85203423]
+ [ -8578.86706423]
+ [ -9256.70214342]
+ [-14286.88039204]
+ [-15193.75410323]
+ [-15954.20562496]
+ [-29030.59703231]
+ [-27590.99654702]
+ [-26025.039767  ]
+ [-24225.19209245]
+ [-21354.91660641]
+ [-18365.98381904]]</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
@@ -16200,18 +16190,18 @@
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[0.17231117]
- [0.15820772]
- [0.14407573]
- [0.25296338]
- [0.20292225]
- [0.15308645]
- [0.35991688]
- [0.27655208]
- [0.1899306 ]
- [0.14551242]
- [0.13179533]
- [0.15966029]]</t>
+          <t>[[0.29113604]
+ [0.26461737]
+ [0.23802374]
+ [0.2843237 ]
+ [0.22665253]
+ [0.16929494]
+ [0.26127717]
+ [0.22629171]
+ [0.1771472 ]
+ [0.12846017]
+ [0.10551527]
+ [0.12450246]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16230,18 +16220,18 @@
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>[[0.03630483]
- [0.03251745]
- [0.02879039]
- [0.10944398]
- [0.10089952]
- [0.09247808]
- [0.84618886]
- [0.82869685]
- [0.81180242]
- [0.99958972]
- [0.9921411 ]
- [0.99849141]]</t>
+          <t>[[0.10456001]
+ [0.09832919]
+ [0.09212688]
+ [0.19895972]
+ [0.18652576]
+ [0.17413852]
+ [0.56577931]
+ [0.55196491]
+ [0.54059804]
+ [0.54272857]
+ [0.54080188]
+ [0.54592358]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16260,18 +16250,18 @@
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[0.53175417]
- [0.47804952]
- [0.42450814]
- [0.76342476]
- [0.61979972]
- [0.47709905]
- [1.22919936]
- [1.0288608 ]
- [0.80904161]
- [0.75441825]
- [0.58878079]
- [0.97604079]]</t>
+          <t>[[1.05852324]
+ [0.96005671]
+ [0.86174897]
+ [1.05521349]
+ [0.86121208]
+ [0.66823863]
+ [1.09956863]
+ [1.02575597]
+ [0.91677664]
+ [0.81040021]
+ [0.58679185]
+ [0.88133878]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16387,7 +16377,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[0.30809135]</t>
+          <t>[0.28865893]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16410,7 +16400,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[0.31259815]</t>
+          <t>[0.29192729]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16433,7 +16423,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[0.30809135 0.31259815 0.86981883 1.05069152 1.24355362 2.86532056]</t>
+          <t>[0.28865893 0.29192729 0.91350996 1.0859525  1.28208272 2.9555191 ]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16452,9 +16442,9 @@
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[[   0.65822338    0.87522785   -2.12149311    2.69443887   -1.10639699]
- [  11.66940961   39.69191424 -135.53229493  165.31154408  -80.14057301]
- [ -58.02467067  156.78558355 -324.26864412  420.64075287 -194.13302163]]</t>
+          <t>[[   1.01646834    0.49228966   -1.92924215    2.25943814   -0.83895399]
+ [  40.66432775    1.91208171 -128.12944035  191.68839718 -105.13536629]
+ [ -71.37763665  208.01113548 -371.47661719  415.6385815  -179.79546314]]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16473,9 +16463,9 @@
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[[   0.65324685    0.81446724   -1.93419992    2.46224339   -0.99575756]
- [   5.43949846   25.41739454  -82.57235279  101.44030077  -48.72484097]
- [ -56.68554098  149.69159739 -308.13469937  400.5184015  -184.38975853]]</t>
+          <t>[[   1.00659029    0.46973965   -1.83084025    2.12660409   -0.77209378]
+ [  15.84140679    8.67152976  -72.0691776   102.42174327  -53.86550222]
+ [ -68.93389948  197.54694612 -350.80567463  391.81608576 -168.62345777]]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16494,7 +16484,7 @@
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[[  3.27495147 -13.00515271  24.30646179 -19.310311     5.73405045]
+          <t>[[  5.79233396 -21.83243117  38.25538986 -30.34671882   9.13142616]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -16519,7 +16509,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.31259815 1.24355362 2.91305471]</t>
+          <t>[0.29192729 1.28208272 3.01954455]</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -16542,7 +16532,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0.30809135 1.05069152 2.86532056]</t>
+          <t>[0.28865893 1.0859525  2.9555191 ]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -16565,7 +16555,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[4.78581894 0.         0.        ]</t>
+          <t>[4.81966122 0.         0.        ]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16589,18 +16579,18 @@
       <c r="D630" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00306182]
- [0.01147734]
- [0.02475671]
- [0.05622067]
- [0.10345404]
- [0.16342528]
- [0.20834652]
- [0.26204173]
- [0.32287286]
- [0.3853847 ]
- [0.45288977]
- [0.52300551]]</t>
+ [0.00474727]
+ [0.01768248]
+ [0.03805709]
+ [0.08166274]
+ [0.14173046]
+ [0.21509257]
+ [0.26634976]
+ [0.32430573]
+ [0.3887185 ]
+ [0.45430457]
+ [0.52446606]
+ [0.59683751]]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -16623,7 +16613,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[0.52300551]</t>
+          <t>[0.59683751]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -16646,17 +16636,17 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-19781717.32498923]
- [-17076106.80547576]
- [-14370081.22748045]
- [-12542993.09215569]
- [-10715357.84689177]
- [ -8887264.28873678]
- [ -8512834.64612646]
- [ -8145239.31076618]
- [ -7784491.25319133]
- [ -7505241.36816595]
- [ -7268472.13721729]
+          <t>[[-16713408.75295492]
+ [-15222767.78372784]
+ [-13731677.73279913]
+ [-12249284.81599234]
+ [-10766297.46319257]
+ [ -9282811.21846886]
+ [ -8806844.90267511]
+ [ -8364165.83604784]
+ [ -7954800.75405883]
+ [ -7616475.05027639]
+ [ -7322940.79369266]
  [ -7074256.27587359]]</t>
         </is>
       </c>
@@ -16680,18 +16670,18 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[[2428268.71992721]
- [2428868.71554343]
- [2429413.98088555]
- [2429592.92493654]
- [2430429.00947942]
- [2431104.76249318]
- [2428738.4691234 ]
- [2428879.50827857]
- [2428986.1559526 ]
- [2428829.89396988]
- [2428753.73167759]
- [2428631.45818966]]</t>
+          <t>[[2428218.61168827]
+ [2428724.23557944]
+ [2429183.91494729]
+ [2429800.12362497]
+ [2430508.6848915 ]
+ [2431081.36461835]
+ [2429104.71879029]
+ [2429165.61660999]
+ [2429200.09983885]
+ [2429074.88820738]
+ [2428992.43903914]
+ [2428858.15142539]]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16714,18 +16704,18 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[[29099.25792387]
- [29107.27200767]
- [29114.63004673]
- [29117.2189793 ]
- [29128.90846233]
- [29138.67358443]
- [29106.14922641]
- [29108.42745158]
- [29110.30440236]
- [29108.38015559]
- [29107.7973808 ]
- [29106.84930446]]</t>
+          <t>[[29098.59220257]
+ [29105.34505881]
+ [29111.54727794]
+ [29119.9726845 ]
+ [29129.87653242]
+ [29138.14899167]
+ [29111.15814582]
+ [29112.29405385]
+ [29113.16057104]
+ [29111.80933635]
+ [29111.2466799 ]
+ [29110.23258559]]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
@@ -16748,18 +16738,18 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[[-4303983.6298089 ]
- [-3950557.94488326]
- [-3596314.23843089]
- [-3088496.63741572]
- [-2578675.24255495]
- [-2068059.91240579]
- [-1761404.94016935]
- [-1453804.74023871]
- [-1145491.92293907]
- [ -857179.3497929 ]
- [ -568218.48714506]
- [ -278501.76632589]]</t>
+          <t>[[-4314575.57293807]
+ [-3960490.78563949]
+ [-3605134.28275111]
+ [-3095350.66869899]
+ [-2583607.24056005]
+ [-2071008.09813203]
+ [-1763333.62689152]
+ [-1455067.42350163]
+ [-1146239.89419163]
+ [ -857519.23053568]
+ [ -568279.0558847 ]
+ [ -278501.80903787]]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
@@ -16782,18 +16772,18 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[[ 3.22228634e+08]
- [ 2.92753833e+08]
- [ 2.63218751e+08]
- [ 2.20898460e+08]
- [ 1.78436855e+08]
- [ 1.35925090e+08]
- [ 1.10403813e+08]
- [ 8.48253461e+07]
- [ 5.92084975e+07]
- [ 3.52752654e+07]
- [ 1.13220373e+07]
- [-1.26341966e+07]]</t>
+          <t>[[ 3.23055137e+08]
+ [ 2.93530631e+08]
+ [ 2.63912167e+08]
+ [ 2.21445132e+08]
+ [ 1.78840236e+08]
+ [ 1.36181295e+08]
+ [ 1.10583554e+08]
+ [ 8.49517954e+07]
+ [ 5.92916867e+07]
+ [ 3.53233544e+07]
+ [ 1.13423807e+07]
+ [-1.26341968e+07]]</t>
         </is>
       </c>
       <c r="E636" t="inlineStr"/>
@@ -16816,18 +16806,18 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[1299587.084936  ]
- [1299571.92514489]
- [1299556.76252982]
- [1299631.91768105]
- [1299610.19319765]
- [1299588.46293559]
- [1299773.99773899]
- [1299766.4954917 ]
- [1299758.95334963]
- [1299805.11353851]
- [1299852.4436007 ]
- [1299923.24041749]]</t>
+          <t>[[1299646.58952453]
+ [1299631.40228286]
+ [1299616.20915959]
+ [1299662.62112014]
+ [1299640.86022423]
+ [1299619.09133139]
+ [1299717.48571289]
+ [1299722.71745119]
+ [1299729.87427111]
+ [1299749.93261974]
+ [1299779.93794828]
+ [1299822.99016677]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16850,9 +16840,9 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[  2427925.55809678]
+          <t>[[  2427925.55809734]
  [    29094.73368413]
- [-22486760.82086648]]</t>
+ [-18203437.82903421]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16875,8 +16865,8 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-4.65609502e+06]
- [ 3.51605136e+08]
+          <t>[[-4.66691836e+06]
+ [ 3.52449303e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -16900,7 +16890,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[2531057.76302859]</t>
+          <t>[2093953.92058338]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16923,7 +16913,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[-2.52739596e+00 -3.73366943e-02  9.17758583e+01]</t>
+          <t>[-3.05497896e+00 -4.51305681e-02  1.06799292e+02]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16946,7 +16936,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[3.11826609e+10 3.10451739e+10 3.03401534e+08 7.86163621e+02
+          <t>[3.11303766e+10 3.09928895e+10 2.95064482e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -18455,7 +18445,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[2.63367232]</t>
+          <t>[2.80618747]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -19587,8 +19577,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>[12.91161888 12.91161888 12.91161888 12.77214171 11.88077769 11.44458563
- 11.05777113]</t>
+          <t>[12. 12. 12. 12. 12. 12. 12.]</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -19615,7 +19604,8 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.077      0.09463231 0.13       0.09173222 0.10071154 0.077
+  0.09043702]]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -19831,7 +19821,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[11.03279711 11.03279711 11.03279711 10.42327969  5.999     ]</t>
+          <t>[12.         12.         12.          9.56023698  5.999     ]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -19881,7 +19871,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[[0.10002487 0.05882939 0.01576194 0.00960431 0.01320408]]</t>
+          <t>[[0.04       0.04       0.01549125 0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">

--- a/examples/99_tower_gbf/15mw/60m/outputs_mono/monotow_output.xlsx
+++ b/examples/99_tower_gbf/15mw/60m/outputs_mono/monotow_output.xlsx
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[2.80618747]</t>
+          <t>[2.82927368]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[11412643.06652228]</t>
+          <t>[11412643.06652229]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -13926,22 +13926,22 @@
       <c r="D533" t="inlineStr">
         <is>
           <t>[[-8465858.16435843]
- [10341538.0277416 ]
+ [10341538.02774161]
  [30664700.63834075]
  [28073181.30340917]
- [27187639.7451262 ]
+ [27187639.74512621]
  [26306828.52051726]
- [25751703.58094259]
- [24887203.99004081]
- [24060336.88729455]
- [27202983.05148115]
- [26815322.61645402]
+ [25751703.58094263]
+ [24887203.99004085]
+ [24060336.88729459]
+ [27202983.05148125]
+ [26815322.61645411]
  [26442794.11306806]
  [28101059.78210696]
  [27569368.62440553]
- [27037739.30709407]
- [28365455.46940403]
- [28076206.12547691]
+ [27037739.30709408]
+ [28365455.46940419]
+ [28076206.12547706]
  [27786989.9619872 ]]</t>
         </is>
       </c>
@@ -13973,7 +13973,7 @@
  [ 999165.10358582]
  [1012306.72918147]
  [1012481.98461778]
- [1012680.53969079]
+ [1012680.53969078]
  [1165018.67629827]
  [1165068.52279727]
  [1165124.41354222]
@@ -13981,7 +13981,7 @@
  [1260993.6751681 ]
  [1261014.35873987]
  [1337708.61239923]
- [1337713.84746635]
+ [1337713.84746634]
  [1337719.01768529]]</t>
         </is>
       </c>
@@ -14010,7 +14010,7 @@
  [-21035596.47643478]
  [-29862752.76381906]
  [-25453914.49990235]
- [-21072639.64766885]
+ [-21072639.64766886]
  [-16947684.28017482]
  [-12594235.27355952]
  [ -8312637.87546565]
@@ -14493,36 +14493,36 @@
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[[2.17032472e-01]
- [2.90284650e-01]
- [3.68951755e-01]
- [2.86925727e-01]
- [2.70732527e-01]
- [2.54478005e-01]
- [2.41346687e-01]
- [2.24568297e-01]
- [2.07352493e-01]
- [2.31616748e-01]
- [2.23804573e-01]
- [2.15808096e-01]
- [2.26230101e-01]
- [2.19354613e-01]
- [2.12494667e-01]
- [2.22160442e-01]
- [2.18625948e-01]
- [2.15095614e-01]
- [4.10482014e-01]
- [3.69058481e-01]
- [3.28052504e-01]
- [4.03873517e-01]
- [3.27178718e-01]
- [2.51829312e-01]
- [4.35129329e-01]
- [4.32019111e-01]
- [4.20557530e-01]
- [4.36800823e-01]
- [6.57551593e-01]
- [1.96167021e-10]]</t>
+          <t>[[2.17032475e-01]
+ [2.90284661e-01]
+ [3.68951775e-01]
+ [2.86925743e-01]
+ [2.70732543e-01]
+ [2.54478019e-01]
+ [2.41346701e-01]
+ [2.24568311e-01]
+ [2.07352506e-01]
+ [2.31616763e-01]
+ [2.23804587e-01]
+ [2.15808110e-01]
+ [2.26230116e-01]
+ [2.19354628e-01]
+ [2.12494681e-01]
+ [2.22160456e-01]
+ [2.18625962e-01]
+ [2.15095629e-01]
+ [4.10482042e-01]
+ [3.69058506e-01]
+ [3.28052526e-01]
+ [4.03873543e-01]
+ [3.27178739e-01]
+ [2.51829326e-01]
+ [4.35129352e-01]
+ [4.32019131e-01]
+ [4.20557544e-01]
+ [4.36800829e-01]
+ [6.57551603e-01]
+ [1.96167040e-10]]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -18445,7 +18445,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[2.80618747]</t>
+          <t>[2.82927368]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
